--- a/python/startup_jobs.xlsx
+++ b/python/startup_jobs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmolines/git/startupjobs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmolines/git/startupjobs/startup_jobs/python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA52204F-660F-1D4B-97BC-63616042326B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1861DE8-CB17-9845-B7B5-5E4C74B0E0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{CBF2191E-5947-214E-ACFD-6A321E482C07}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{CBF2191E-5947-214E-ACFD-6A321E482C07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1338,246 +1338,6 @@
     <t>Domo</t>
   </si>
   <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2023/03/Kiddle-Pass-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" srcset="https://www.domoinvest.com.br/wp-content/uploads/2023/03/Kiddle-Pass-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2023/03/Kiddle-Pass-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2023/03/Kiddle-Pass-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2023/03/Kiddle-Pass-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2023/03/Kiddle-Pass-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2023/03/Kiddle-Pass.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2023/01/next-fit-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2023/01/next-fit-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2023/01/next-fit-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2023/01/next-fit-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2023/01/next-fit-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2023/01/next-fit-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2023/01/next-fit.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2023/01/fanbase-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2023/01/fanbase-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2023/01/fanbase-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2023/01/fanbase-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2023/01/fanbase-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2023/01/fanbase-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2023/01/fanbase.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2023/01/viziomed-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2023/01/viziomed-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2023/01/viziomed-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2023/01/viziomed-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2023/01/viziomed-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2023/01/viziomed-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2023/01/viziomed.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2022/11/erural-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2022/11/erural-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2022/11/erural-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2022/11/erural-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2022/11/erural-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2022/11/erural-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2022/11/erural.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2022/10/nobli-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2022/10/nobli-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2022/10/nobli-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2022/10/nobli-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2022/10/nobli-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2022/10/nobli-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2022/10/nobli.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2022/08/BankMe-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2022/08/BankMe-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2022/08/BankMe-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2022/08/BankMe-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2022/08/BankMe-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2022/08/BankMe-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2022/08/BankMe.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2022/08/Fluid-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2022/08/Fluid-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2022/08/Fluid-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2022/08/Fluid-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2022/08/Fluid-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2022/08/Fluid-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2022/08/Fluid.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2022/07/octagora-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2022/07/octagora-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2022/07/octagora-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2022/07/octagora-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2022/07/octagora-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2022/07/octagora-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2022/07/octagora.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2022/07/Setyou-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2022/07/Setyou-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2022/07/Setyou-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2022/07/Setyou-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2022/07/Setyou-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2022/07/Setyou-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2022/07/Setyou.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2022/07/EcoIT-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2022/07/EcoIT-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2022/07/EcoIT-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2022/07/EcoIT-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2022/07/EcoIT-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2022/07/EcoIT-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2022/07/EcoIT.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2022/07/Captei-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2022/07/Captei-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2022/07/Captei-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2022/07/Captei-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2022/07/Captei-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2022/07/Captei-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2022/07/Captei.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2022/07/Lingopass-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2022/07/Lingopass-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2022/07/Lingopass-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2022/07/Lingopass-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2022/07/Lingopass-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2022/07/Lingopass-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2022/07/Lingopass.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2022/05/logo_SolarZ-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2022/05/logo_SolarZ-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2022/05/logo_SolarZ-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2022/05/logo_SolarZ-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2022/05/logo_SolarZ-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2022/05/logo_SolarZ-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2022/05/logo_SolarZ.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2022/05/Logo_AgendaBoa-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2022/05/Logo_AgendaBoa-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2022/05/Logo_AgendaBoa-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2022/05/Logo_AgendaBoa-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2022/05/Logo_AgendaBoa-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2022/05/Logo_AgendaBoa-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2022/05/Logo_AgendaBoa.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2022/05/Logo_Stattus4--480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2022/05/Logo_Stattus4--480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2022/05/Logo_Stattus4--300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2022/05/Logo_Stattus4--230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2022/05/Logo_Stattus4--350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2022/05/Logo_Stattus4--272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2022/05/Logo_Stattus4-.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2022/03/Voltbras-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2022/03/Voltbras-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2022/03/Voltbras-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2022/03/Voltbras-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2022/03/Voltbras-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2022/03/Voltbras-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2022/03/Voltbras.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2022/03/recrutei-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2022/03/recrutei-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2022/03/recrutei-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2022/03/recrutei-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2022/03/recrutei-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2022/03/recrutei-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2022/03/recrutei.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2022/03/PrivacyToosl-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2022/03/PrivacyToosl-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2022/03/PrivacyToosl-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2022/03/PrivacyToosl-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2022/03/PrivacyToosl-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2022/03/PrivacyToosl-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2022/03/PrivacyToosl.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2022/03/PayHop-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2022/03/PayHop-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2022/03/PayHop-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2022/03/PayHop-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2022/03/PayHop-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2022/03/PayHop-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2022/03/PayHop.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2022/03/vn-vertical-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2022/03/vn-vertical-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2022/03/vn-vertical-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2022/03/vn-vertical-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2022/03/vn-vertical-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2022/03/vn-vertical-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2022/03/vn-vertical.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2020/02/merce-do-bairro-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2020/02/merce-do-bairro-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2020/02/merce-do-bairro-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2020/02/merce-do-bairro-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2020/02/merce-do-bairro-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2020/02/merce-do-bairro-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2020/02/merce-do-bairro.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2020/02/radar-fit-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2020/02/radar-fit-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2020/02/radar-fit-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2020/02/radar-fit-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2020/02/radar-fit-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2020/02/radar-fit-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2020/02/radar-fit.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2020/02/iouu_logo-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2020/02/iouu_logo-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2020/02/iouu_logo-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2020/02/iouu_logo-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2020/02/iouu_logo-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2020/02/iouu_logo-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2020/02/iouu_logo.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2020/02/Grao_exit-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2020/02/Grao_exit-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2020/02/Grao_exit-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2020/02/Grao_exit-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2020/02/Grao_exit-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2020/02/Grao_exit-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2020/02/Grao_exit.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2020/02/bloxs_n-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2020/02/bloxs_n-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2020/02/bloxs_n-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2020/02/bloxs_n-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2020/02/bloxs_n-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2020/02/bloxs_n-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2020/02/bloxs_n.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2015/03/ativup_n-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2015/03/ativup_n-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/ativup_n-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/ativup_n-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/ativup_n-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/ativup_n-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/ativup_n.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2015/03/fretadao-logo-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2015/03/fretadao-logo-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/fretadao-logo-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/fretadao-logo-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/fretadao-logo-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/fretadao-logo-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/fretadao-logo.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2015/03/turbi-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="Turbi" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2015/03/turbi-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/turbi-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/turbi-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/turbi-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/turbi-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/turbi.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2015/03/agenda-edu-exit-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2015/03/agenda-edu-exit-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/agenda-edu-exit-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/agenda-edu-exit-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/agenda-edu-exit-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/agenda-edu-exit-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/agenda-edu-exit.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2015/03/noverde_exit-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2015/03/noverde_exit-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/noverde_exit-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/noverde_exit-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/noverde_exit-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/noverde_exit-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/noverde_exit.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2015/03/resolvvi-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2015/03/resolvvi-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/resolvvi-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/resolvvi-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/resolvvi-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/resolvvi-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/resolvvi.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2015/03/mLabs_exit-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2015/03/mLabs_exit-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/mLabs_exit-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/mLabs_exit-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/mLabs_exit-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/mLabs_exit-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/mLabs_exit.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2015/03/goomer-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2015/03/goomer-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/goomer-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/goomer-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/goomer-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/goomer-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/goomer.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2015/03/netshow-1-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="netshow" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2015/03/netshow-1-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/netshow-1-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/netshow-1-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/netshow-1-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/netshow-1-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/netshow-1.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2015/03/Instaviagem_exit-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2015/03/Instaviagem_exit-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/Instaviagem_exit-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/Instaviagem_exit-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/Instaviagem_exit-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/Instaviagem_exit-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/Instaviagem_exit.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2015/03/posher-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2015/03/posher-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/posher-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/posher-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/posher-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/posher-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/posher.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2020/07/find-up-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2020/07/find-up-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2020/07/find-up-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2020/07/find-up-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2020/07/find-up-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2020/07/find-up-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2020/07/find-up.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2020/07/capital-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2020/07/capital-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2020/07/capital-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2020/07/capital-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2020/07/capital-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2020/07/capital-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2020/07/capital.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2020/07/7waves-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2020/07/7waves-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2020/07/7waves-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2020/07/7waves-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2020/07/7waves-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2020/07/7waves-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2020/07/7waves.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2020/07/openstartups-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2020/07/openstartups-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2020/07/openstartups-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2020/07/openstartups-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2020/07/openstartups-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2020/07/openstartups-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2020/07/openstartups.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2020/08/logo_arbo-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2020/08/logo_arbo-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2020/08/logo_arbo-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2020/08/logo_arbo-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2020/08/logo_arbo-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2020/08/logo_arbo-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2020/08/logo_arbo.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2015/03/rede_vistorias-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2015/03/rede_vistorias-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/rede_vistorias-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/rede_vistorias-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/rede_vistorias-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/rede_vistorias-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/rede_vistorias.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2020/08/close_care-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2020/08/close_care-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2020/08/close_care-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2020/08/close_care-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2020/08/close_care-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2020/08/close_care-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2020/08/close_care.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2020/08/logo_enjoy-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2020/08/logo_enjoy-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2020/08/logo_enjoy-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2020/08/logo_enjoy-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2020/08/logo_enjoy-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2020/08/logo_enjoy-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2020/08/logo_enjoy.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2015/03/logo_Speed-Bird-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2015/03/logo_Speed-Bird-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/logo_Speed-Bird-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/logo_Speed-Bird-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/logo_Speed-Bird-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/logo_Speed-Bird-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/logo_Speed-Bird.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2015/03/pinpeople-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2015/03/pinpeople-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/pinpeople-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/pinpeople-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/pinpeople-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/pinpeople-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/pinpeople.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2020/09/logo-credere-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2020/09/logo-credere-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2020/09/logo-credere-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2020/09/logo-credere-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2020/09/logo-credere-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2020/09/logo-credere-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2020/09/logo-credere.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2015/03/allya_logo-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2015/03/allya_logo-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/allya_logo-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/allya_logo-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/allya_logo-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/allya_logo-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/allya_logo.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2015/03/gavea-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2015/03/gavea-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/gavea-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/gavea-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/gavea-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/gavea-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/gavea.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2015/03/even3-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2015/03/even3-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/even3-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/even3-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/even3-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/even3-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/even3.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2015/03/fin-x-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2015/03/fin-x-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/fin-x-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/fin-x-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/fin-x-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/fin-x-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/fin-x.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2015/03/sensix-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2015/03/sensix-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/sensix-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/sensix-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/sensix-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/sensix-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/sensix.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2015/03/jovensgenios-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2015/03/jovensgenios-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/jovensgenios-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/jovensgenios-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/jovensgenios-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/jovensgenios-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/jovensgenios.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2015/03/logo-Pix-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2015/03/logo-Pix-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/logo-Pix-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/logo-Pix-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/logo-Pix-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/logo-Pix-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/logo-Pix.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2015/03/logstore_logo-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2015/03/logstore_logo-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/logstore_logo-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/logstore_logo-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/logstore_logo-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/logstore_logo-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2015/03/logstore_logo.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2021/02/mutuus-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2021/02/mutuus-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2021/02/mutuus-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2021/02/mutuus-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2021/02/mutuus-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2021/02/mutuus-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2021/02/mutuus.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2021/02/conta-agil-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2021/02/conta-agil-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2021/02/conta-agil-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2021/02/conta-agil-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2021/02/conta-agil-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2021/02/conta-agil-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2021/02/conta-agil.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2021/02/s2-pets-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2021/02/s2-pets-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2021/02/s2-pets-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2021/02/s2-pets-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2021/02/s2-pets-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2021/02/s2-pets-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2021/02/s2-pets.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2021/02/digital-innovation-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2021/02/digital-innovation-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2021/02/digital-innovation-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2021/02/digital-innovation-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2021/02/digital-innovation-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2021/02/digital-innovation-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2021/02/digital-innovation.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2021/05/ramper-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2021/05/ramper-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2021/05/ramper-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2021/05/ramper-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2021/05/ramper-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2021/05/ramper-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2021/05/ramper.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2021/05/delfos-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2021/05/delfos-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2021/05/delfos-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2021/05/delfos-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2021/05/delfos-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2021/05/delfos-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2021/05/delfos.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2021/05/p2-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2021/05/p2-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2021/05/p2-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2021/05/p2-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2021/05/p2-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2021/05/p2-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2021/05/p2.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2021/05/customerz-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2021/05/customerz-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2021/05/customerz-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2021/05/customerz-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2021/05/customerz-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2021/05/customerz-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2021/05/customerz.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2021/05/brisa-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2021/05/brisa-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2021/05/brisa-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2021/05/brisa-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2021/05/brisa-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2021/05/brisa-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2021/05/brisa.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2015/01/CONTA_SIMPLES-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2015/01/CONTA_SIMPLES-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2015/01/CONTA_SIMPLES-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2015/01/CONTA_SIMPLES-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2015/01/CONTA_SIMPLES-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2015/01/CONTA_SIMPLES-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2015/01/CONTA_SIMPLES.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2021/07/FASTER_LOGO-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2021/07/FASTER_LOGO-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2021/07/FASTER_LOGO-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2021/07/FASTER_LOGO-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2021/07/FASTER_LOGO-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2021/07/FASTER_LOGO-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2021/07/FASTER_LOGO.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2021/07/88i-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2021/07/88i-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2021/07/88i-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2021/07/88i-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2021/07/88i-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2021/07/88i-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2021/07/88i.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2021/07/MEU_TUDO-1-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2021/07/MEU_TUDO-1-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2021/07/MEU_TUDO-1-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2021/07/MEU_TUDO-1-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2021/07/MEU_TUDO-1-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2021/07/MEU_TUDO-1-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2021/07/MEU_TUDO-1.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2021/07/SEMEXE-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2021/07/SEMEXE-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2021/07/SEMEXE-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2021/07/SEMEXE-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2021/07/SEMEXE-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2021/07/SEMEXE-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2021/07/SEMEXE.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2015/01/Usados_logo-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2015/01/Usados_logo-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2015/01/Usados_logo-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2015/01/Usados_logo-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2015/01/Usados_logo-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2015/01/Usados_logo-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2015/01/Usados_logo.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2021/08/flix-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2021/08/flix-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2021/08/flix-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2021/08/flix-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2021/08/flix-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2021/08/flix-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2021/08/flix.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2021/08/dinie-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2021/08/dinie-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2021/08/dinie-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2021/08/dinie-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2021/08/dinie-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2021/08/dinie-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2021/08/dinie.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2021/08/Rocketmat-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2021/08/Rocketmat-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2021/08/Rocketmat-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2021/08/Rocketmat-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2021/08/Rocketmat-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2021/08/Rocketmat-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2021/08/Rocketmat.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2021/10/infleet-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2021/10/infleet-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2021/10/infleet-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2021/10/infleet-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2021/10/infleet-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2021/10/infleet-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2021/10/infleet.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2021/10/trackage-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2021/10/trackage-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2021/10/trackage-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2021/10/trackage-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2021/10/trackage-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2021/10/trackage-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2021/10/trackage.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2021/11/axxes-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2021/11/axxes-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2021/11/axxes-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2021/11/axxes-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2021/11/axxes-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2021/11/axxes-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2021/11/axxes.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2021/11/my-work-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2021/11/my-work-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2021/11/my-work-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2021/11/my-work-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2021/11/my-work-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2021/11/my-work-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2021/11/my-work.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2021/11/zapay-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2021/11/zapay-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2021/11/zapay-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2021/11/zapay-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2021/11/zapay-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2021/11/zapay-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2021/11/zapay.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img width="480" height="321" src="https://www.domoinvest.com.br/wp-content/uploads/2021/12/weego-480x321.png" class="attachment-sydney-mas-thumb size-sydney-mas-thumb wp-post-image" alt="" decoding="async" loading="lazy" srcset="https://www.domoinvest.com.br/wp-content/uploads/2021/12/weego-480x321.png 480w, https://www.domoinvest.com.br/wp-content/uploads/2021/12/weego-300x200.png 300w, https://www.domoinvest.com.br/wp-content/uploads/2021/12/weego-230x154.png 230w, https://www.domoinvest.com.br/wp-content/uploads/2021/12/weego-350x234.png 350w, https://www.domoinvest.com.br/wp-content/uploads/2021/12/weego-272x182.png 272w, https://www.domoinvest.com.br/wp-content/uploads/2021/12/weego.png 512w" sizes="(max-width: 480px) 100vw, 480px" /&gt;</t>
-  </si>
-  <si>
     <t>Kiddle Pass</t>
   </si>
   <si>
@@ -3379,6 +3139,246 @@
   </si>
   <si>
     <t>jobsUrl</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2020/07/7waves-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2021/07/88i-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2015/03/agenda-edu-exit-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2022/05/Logo_AgendaBoa-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2015/03/allya_logo-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2020/08/logo_arbo-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2015/03/ativup_n-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2021/11/axxes-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2022/08/BankMe-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2020/02/bloxs_n-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2021/05/brisa-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2022/07/Captei-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2020/08/close_care-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2021/02/conta-agil-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2015/01/CONTA_SIMPLES-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2020/09/logo-credere-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2021/05/customerz-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2021/05/delfos-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2021/02/digital-innovation-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2021/08/dinie-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2022/11/erural-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2022/07/EcoIT-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2020/08/logo_enjoy-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2015/03/even3-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2023/01/fanbase-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2021/07/FASTER_LOGO-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2015/03/fin-x-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2020/07/find-up-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2021/08/flix-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2022/08/Fluid-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2015/03/fretadao-logo-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2015/03/gavea-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2015/03/goomer-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2020/02/Grao_exit-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2021/10/infleet-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2015/03/Instaviagem_exit-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2020/02/iouu_logo-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2015/03/jovensgenios-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2023/03/Kiddle-Pass-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2022/07/Lingopass-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2015/03/logstore_logo-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2020/02/merce-do-bairro-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2021/07/MEU_TUDO-1-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2015/03/mLabs_exit-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2021/02/mutuus-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2021/11/my-work-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2015/03/netshow-1-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2023/01/next-fit-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2015/03/noverde_exit-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2022/10/nobli-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2022/07/octagora-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2020/07/openstartups-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2022/03/PayHop-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2015/03/pinpeople-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2015/03/logo-Pix-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2021/05/p2-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2015/03/posher-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2022/03/PrivacyToosl-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2020/07/capital-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2020/02/radar-fit-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2021/05/ramper-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2022/03/recrutei-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2015/03/rede_vistorias-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2015/03/resolvvi-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2021/08/Rocketmat-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2021/02/s2-pets-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2021/07/SEMEXE-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2015/03/sensix-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2022/07/Setyou-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2022/05/logo_SolarZ-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2015/03/logo_Speed-Bird-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2022/05/Logo_Stattus4--480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2021/10/trackage-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2015/03/turbi-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2015/01/Usados_logo-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2022/03/vn-vertical-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2023/01/viziomed-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2022/03/Voltbras-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2021/12/weego-480x321.png</t>
+  </si>
+  <si>
+    <t>https://www.domoinvest.com.br/wp-content/uploads/2021/11/zapay-480x321.png</t>
   </si>
 </sst>
 </file>
@@ -3761,8 +3761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16920743-C846-2C4C-8CE8-91843824B7E7}">
   <dimension ref="A1:I298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3796,247 +3796,214 @@
         <v>272</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1112</v>
+        <v>1032</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1108</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>471</v>
-      </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>391</v>
+        <v>276</v>
       </c>
       <c r="F2" t="s">
-        <v>431</v>
+        <v>325</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>551</v>
+        <v>277</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>499</v>
-      </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>418</v>
+        <v>278</v>
       </c>
       <c r="F3" t="s">
-        <v>431</v>
+        <v>325</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>578</v>
+        <v>279</v>
+      </c>
+      <c r="H3" t="s">
+        <v>966</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>691</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>655</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>816</v>
+        <v>280</v>
+      </c>
+      <c r="F4" t="s">
+        <v>325</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>741</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>461</v>
-      </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>381</v>
+        <v>282</v>
       </c>
       <c r="F5" t="s">
-        <v>431</v>
+        <v>325</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>541</v>
+        <v>283</v>
+      </c>
+      <c r="H5" t="s">
+        <v>967</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>446</v>
-      </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>366</v>
+        <v>284</v>
       </c>
       <c r="F6" t="s">
-        <v>431</v>
+        <v>325</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>526</v>
+        <v>285</v>
+      </c>
+      <c r="H6" t="s">
+        <v>968</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>271</v>
+        <v>286</v>
+      </c>
+      <c r="F7" t="s">
+        <v>325</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>1</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>678</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>648</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>816</v>
+        <v>288</v>
+      </c>
+      <c r="F8" t="s">
+        <v>325</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>728</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="F9" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>348</v>
+        <v>291</v>
       </c>
       <c r="H9" t="s">
-        <v>1056</v>
+        <v>969</v>
       </c>
       <c r="I9" t="s">
-        <v>1110</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>950</v>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>883</v>
+        <v>292</v>
       </c>
       <c r="F10" t="s">
-        <v>1007</v>
+        <v>325</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1056</v>
+        <v>293</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>970</v>
       </c>
       <c r="I10" t="s">
-        <v>1110</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>271</v>
+        <v>294</v>
+      </c>
+      <c r="F11" t="s">
+        <v>325</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1008</v>
-      </c>
-      <c r="I11" t="s">
-        <v>1110</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>480</v>
-      </c>
       <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>400</v>
+        <v>296</v>
       </c>
       <c r="F12" t="s">
-        <v>431</v>
+        <v>325</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>560</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>710</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>645</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>816</v>
+        <v>298</v>
+      </c>
+      <c r="F13" t="s">
+        <v>325</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>759</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -4044,39 +4011,27 @@
         <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="F14" t="s">
         <v>325</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>1045</v>
-      </c>
-      <c r="I14" t="s">
-        <v>1109</v>
+        <v>481</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>707</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>644</v>
+        <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>816</v>
+        <v>301</v>
+      </c>
+      <c r="F15" t="s">
+        <v>325</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>756</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -4084,5513 +4039,5558 @@
         <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="F16" t="s">
         <v>325</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H16" t="s">
-        <v>1046</v>
-      </c>
-      <c r="I16" t="s">
-        <v>1109</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="C17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>393</v>
+        <v>305</v>
       </c>
       <c r="F17" t="s">
-        <v>431</v>
+        <v>325</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>553</v>
+        <v>306</v>
+      </c>
+      <c r="H17" t="s">
+        <v>971</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>271</v>
+        <v>280</v>
+      </c>
+      <c r="F18" t="s">
+        <v>325</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" t="s">
-        <v>1009</v>
-      </c>
-      <c r="I18" t="s">
-        <v>1110</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>458</v>
-      </c>
       <c r="C19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>378</v>
+        <v>308</v>
       </c>
       <c r="F19" t="s">
-        <v>431</v>
+        <v>325</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>538</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>695</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>648</v>
+        <v>16</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>816</v>
+        <v>310</v>
+      </c>
+      <c r="F20" t="s">
+        <v>325</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>745</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>508</v>
-      </c>
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>427</v>
+        <v>312</v>
       </c>
       <c r="F21" t="s">
-        <v>431</v>
+        <v>325</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>587</v>
+        <v>313</v>
+      </c>
+      <c r="H21" t="s">
+        <v>972</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>949</v>
+      <c r="C22" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>882</v>
+        <v>314</v>
       </c>
       <c r="F22" t="s">
-        <v>1007</v>
+        <v>325</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>1006</v>
+        <v>315</v>
       </c>
       <c r="H22" t="s">
-        <v>1106</v>
+        <v>973</v>
       </c>
       <c r="I22" t="s">
-        <v>1109</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>438</v>
-      </c>
       <c r="C23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>358</v>
+        <v>316</v>
       </c>
       <c r="F23" t="s">
-        <v>431</v>
+        <v>325</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>518</v>
+        <v>317</v>
       </c>
       <c r="H23" t="s">
-        <v>1060</v>
+        <v>974</v>
       </c>
       <c r="I23" t="s">
-        <v>1109</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C24" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>271</v>
+        <v>318</v>
+      </c>
+      <c r="F24" t="s">
+        <v>325</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>15</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>271</v>
+        <v>280</v>
+      </c>
+      <c r="F25" t="s">
+        <v>325</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>20</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>271</v>
+        <v>321</v>
+      </c>
+      <c r="F26" t="s">
+        <v>325</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>25</v>
+        <v>322</v>
       </c>
       <c r="H26" t="s">
-        <v>1010</v>
+        <v>975</v>
       </c>
       <c r="I26" t="s">
-        <v>1109</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>948</v>
+      <c r="C27" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>881</v>
+        <v>323</v>
       </c>
       <c r="F27" t="s">
-        <v>1007</v>
+        <v>325</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="H27" t="s">
-        <v>1105</v>
-      </c>
-      <c r="I27" t="s">
-        <v>1110</v>
+        <v>324</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>666</v>
+        <v>332</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>644</v>
+        <v>16</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>767</v>
+        <v>326</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>816</v>
+        <v>340</v>
+      </c>
+      <c r="F28" t="s">
+        <v>331</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>717</v>
+        <v>348</v>
+      </c>
+      <c r="H28" t="s">
+        <v>976</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="C29" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>280</v>
+        <v>39</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="F29" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>281</v>
+        <v>38</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>334</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>271</v>
+        <v>342</v>
+      </c>
+      <c r="F30" t="s">
+        <v>331</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" t="s">
-        <v>1011</v>
-      </c>
-      <c r="I30" t="s">
-        <v>1110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>335</v>
+      </c>
       <c r="C31" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>282</v>
+        <v>118</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>343</v>
       </c>
       <c r="F31" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="H31" t="s">
-        <v>1047</v>
-      </c>
-      <c r="I31" t="s">
-        <v>1109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>457</v>
+        <v>336</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>377</v>
+        <v>327</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="F32" t="s">
-        <v>431</v>
+        <v>331</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>537</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>337</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>35</v>
+        <v>328</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>271</v>
+        <v>345</v>
+      </c>
+      <c r="F33" t="s">
+        <v>331</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>34</v>
+        <v>350</v>
+      </c>
+      <c r="H33" t="s">
+        <v>977</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>338</v>
+      </c>
       <c r="C34" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>284</v>
+        <v>329</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="F34" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="H34" t="s">
-        <v>1048</v>
-      </c>
-      <c r="I34" t="s">
-        <v>1109</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>339</v>
+      </c>
       <c r="C35" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>286</v>
+        <v>330</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F35" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>287</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>674</v>
+      <c r="A36" t="s">
+        <v>1033</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>648</v>
+        <v>16</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>816</v>
+        <v>391</v>
+      </c>
+      <c r="F36" t="s">
+        <v>431</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="H36" t="s">
-        <v>1065</v>
-      </c>
-      <c r="I36" t="s">
-        <v>1110</v>
+        <v>471</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1034</v>
+      </c>
       <c r="C37" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>288</v>
+        <v>418</v>
       </c>
       <c r="F37" t="s">
-        <v>325</v>
+        <v>431</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>289</v>
+        <v>498</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>496</v>
+      <c r="A38" t="s">
+        <v>1035</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="F38" t="s">
         <v>431</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>576</v>
+        <v>461</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
+      <c r="A39" t="s">
+        <v>1036</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>271</v>
+        <v>366</v>
+      </c>
+      <c r="F39" t="s">
+        <v>431</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" t="s">
-        <v>1012</v>
-      </c>
-      <c r="I39" t="s">
-        <v>1109</v>
+        <v>446</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>333</v>
+      <c r="A40" t="s">
+        <v>1037</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>341</v>
+        <v>400</v>
       </c>
       <c r="F40" t="s">
-        <v>331</v>
+        <v>431</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>1012</v>
-      </c>
-      <c r="I40" t="s">
-        <v>1109</v>
+        <v>480</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>705</v>
+      <c r="A41" t="s">
+        <v>1038</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>659</v>
+        <v>16</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>816</v>
+        <v>393</v>
+      </c>
+      <c r="F41" t="s">
+        <v>431</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="H41" t="s">
-        <v>1076</v>
-      </c>
-      <c r="I41" t="s">
-        <v>1109</v>
+        <v>473</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>41</v>
+      <c r="A42" t="s">
+        <v>1039</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>271</v>
+        <v>378</v>
+      </c>
+      <c r="F42" t="s">
+        <v>431</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H42" t="s">
-        <v>1013</v>
-      </c>
-      <c r="I42" t="s">
-        <v>1109</v>
+        <v>458</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>947</v>
+      <c r="A43" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>880</v>
+        <v>427</v>
       </c>
       <c r="F43" t="s">
-        <v>1007</v>
+        <v>431</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>1005</v>
+        <v>507</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>443</v>
+      <c r="A44" t="s">
+        <v>1041</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F44" t="s">
         <v>431</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>523</v>
+        <v>438</v>
+      </c>
+      <c r="H44" t="s">
+        <v>980</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>685</v>
+      <c r="A45" t="s">
+        <v>1042</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>648</v>
+        <v>16</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>816</v>
+        <v>377</v>
+      </c>
+      <c r="F45" t="s">
+        <v>431</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="H45" t="s">
-        <v>1067</v>
-      </c>
-      <c r="I45" t="s">
-        <v>1109</v>
+        <v>457</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>714</v>
+      <c r="A46" t="s">
+        <v>1043</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>648</v>
+        <v>16</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>816</v>
+        <v>416</v>
+      </c>
+      <c r="F46" t="s">
+        <v>431</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>1078</v>
-      </c>
-      <c r="I46" t="s">
-        <v>1110</v>
+        <v>496</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>946</v>
+      <c r="A47" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>879</v>
+        <v>363</v>
       </c>
       <c r="F47" t="s">
-        <v>1007</v>
+        <v>431</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>1004</v>
+        <v>443</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>1045</v>
+      </c>
       <c r="C48" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F48" t="s">
-        <v>325</v>
+        <v>431</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="H48" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F49" t="s">
+        <v>431</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F50" t="s">
+        <v>431</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F51" t="s">
+        <v>431</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>1049</v>
       </c>
-      <c r="I48" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H49" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="F50" t="s">
-        <v>1007</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>292</v>
+        <v>415</v>
       </c>
       <c r="F52" t="s">
-        <v>325</v>
+        <v>431</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="H52" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>1050</v>
       </c>
-      <c r="I52" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>475</v>
-      </c>
       <c r="C53" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="F53" t="s">
         <v>431</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>555</v>
+        <v>493</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>700</v>
+      <c r="A54" t="s">
+        <v>1051</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>644</v>
+        <v>16</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>816</v>
+        <v>411</v>
+      </c>
+      <c r="F54" t="s">
+        <v>431</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="H54" t="s">
-        <v>1073</v>
-      </c>
-      <c r="I54" t="s">
-        <v>1109</v>
+        <v>491</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>53</v>
+      <c r="A55" t="s">
+        <v>1052</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>271</v>
+        <v>423</v>
+      </c>
+      <c r="F55" t="s">
+        <v>431</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>1015</v>
-      </c>
-      <c r="I55" t="s">
-        <v>1111</v>
+        <v>503</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>57</v>
+      <c r="A56" t="s">
+        <v>1053</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>271</v>
+        <v>356</v>
+      </c>
+      <c r="F56" t="s">
+        <v>431</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>58</v>
+        <v>436</v>
       </c>
       <c r="H56" t="s">
-        <v>1016</v>
+        <v>979</v>
       </c>
       <c r="I56" t="s">
-        <v>1110</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>61</v>
+      <c r="A57" t="s">
+        <v>1054</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>271</v>
+        <v>362</v>
+      </c>
+      <c r="F57" t="s">
+        <v>431</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H57" t="s">
-        <v>1017</v>
-      </c>
-      <c r="I57" t="s">
-        <v>1109</v>
+        <v>442</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>944</v>
+      <c r="A58" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>877</v>
+        <v>396</v>
       </c>
       <c r="F58" t="s">
-        <v>1007</v>
+        <v>431</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>1002</v>
+        <v>476</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>943</v>
+      <c r="A59" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>876</v>
+        <v>402</v>
       </c>
       <c r="F59" t="s">
-        <v>1007</v>
+        <v>431</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>1003</v>
+        <v>482</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>677</v>
+      <c r="A60" t="s">
+        <v>1057</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>648</v>
+        <v>16</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>816</v>
+        <v>354</v>
+      </c>
+      <c r="F60" t="s">
+        <v>431</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>727</v>
+        <v>434</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>65</v>
+      <c r="A61" t="s">
+        <v>1058</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>271</v>
+        <v>417</v>
+      </c>
+      <c r="F61" t="s">
+        <v>431</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H61" t="s">
-        <v>1018</v>
-      </c>
-      <c r="I61" t="s">
-        <v>1109</v>
+        <v>497</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>489</v>
+      <c r="A62" t="s">
+        <v>1059</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F62" t="s">
         <v>431</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>569</v>
+        <v>483</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>69</v>
+      <c r="A63" t="s">
+        <v>1060</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>271</v>
+        <v>389</v>
+      </c>
+      <c r="F63" t="s">
+        <v>431</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H63" t="s">
-        <v>1019</v>
-      </c>
-      <c r="I63" t="s">
-        <v>1109</v>
+        <v>469</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>704</v>
+      <c r="A64" t="s">
+        <v>1061</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>645</v>
+        <v>16</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>816</v>
+        <v>422</v>
+      </c>
+      <c r="F64" t="s">
+        <v>431</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H64" t="s">
-        <v>1019</v>
-      </c>
-      <c r="I64" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>497</v>
+        <v>502</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>1062</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>71</v>
+        <v>359</v>
       </c>
       <c r="F65" t="s">
         <v>431</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>942</v>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>875</v>
+        <v>379</v>
       </c>
       <c r="F66" t="s">
-        <v>1007</v>
+        <v>431</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>1001</v>
-      </c>
-      <c r="H66" t="s">
-        <v>1104</v>
-      </c>
-      <c r="I66" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>941</v>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>874</v>
+        <v>401</v>
       </c>
       <c r="F67" t="s">
-        <v>1007</v>
+        <v>431</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>1000</v>
-      </c>
-      <c r="H67" t="s">
-        <v>1103</v>
-      </c>
-      <c r="I67" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>481</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>1065</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>271</v>
+        <v>385</v>
+      </c>
+      <c r="F68" t="s">
+        <v>431</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H68" t="s">
-        <v>1020</v>
-      </c>
-      <c r="I68" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>940</v>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>873</v>
+        <v>376</v>
       </c>
       <c r="F69" t="s">
-        <v>1007</v>
+        <v>431</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>479</v>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>1067</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="F70" t="s">
         <v>431</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>939</v>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>872</v>
+        <v>387</v>
       </c>
       <c r="F71" t="s">
-        <v>1007</v>
+        <v>431</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>998</v>
-      </c>
-      <c r="H71" t="s">
-        <v>1102</v>
-      </c>
-      <c r="I71" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>1069</v>
+      </c>
       <c r="C72" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>294</v>
+        <v>375</v>
       </c>
       <c r="F72" t="s">
-        <v>325</v>
+        <v>431</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>683</v>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>1070</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>644</v>
+        <v>16</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>816</v>
+        <v>405</v>
+      </c>
+      <c r="F73" t="s">
+        <v>431</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>495</v>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>1071</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>415</v>
+        <v>352</v>
       </c>
       <c r="F74" t="s">
         <v>431</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>679</v>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>1072</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>649</v>
+        <v>16</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>816</v>
+        <v>364</v>
+      </c>
+      <c r="F75" t="s">
+        <v>431</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>493</v>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>1073</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F76" t="s">
         <v>431</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>1074</v>
+      </c>
       <c r="C77" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>296</v>
+        <v>373</v>
       </c>
       <c r="F77" t="s">
-        <v>325</v>
+        <v>431</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>1075</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>271</v>
+        <v>419</v>
+      </c>
+      <c r="F78" t="s">
+        <v>431</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>938</v>
+        <v>499</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>871</v>
+        <v>384</v>
       </c>
       <c r="F79" t="s">
-        <v>1007</v>
+        <v>431</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>997</v>
-      </c>
-      <c r="H79" t="s">
-        <v>1021</v>
-      </c>
-      <c r="I79" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>491</v>
+        <v>464</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>1077</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F80" t="s">
         <v>431</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>571</v>
+        <v>488</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>504</v>
+      <c r="A81" t="s">
+        <v>1078</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="F81" t="s">
         <v>431</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>583</v>
+        <v>508</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>81</v>
+      <c r="A82" t="s">
+        <v>1079</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>271</v>
+        <v>386</v>
+      </c>
+      <c r="F82" t="s">
+        <v>431</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H82" t="s">
-        <v>1021</v>
-      </c>
-      <c r="I82" t="s">
-        <v>1109</v>
+        <v>466</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>937</v>
+      <c r="A83" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>870</v>
+        <v>353</v>
       </c>
       <c r="F83" t="s">
-        <v>1007</v>
+        <v>431</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>82</v>
+        <v>433</v>
+      </c>
+      <c r="H83" t="s">
+        <v>978</v>
+      </c>
+      <c r="I83" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>85</v>
+      <c r="A84" t="s">
+        <v>1081</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>271</v>
+        <v>382</v>
+      </c>
+      <c r="F84" t="s">
+        <v>431</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>1022</v>
-      </c>
-      <c r="H84" t="s">
-        <v>1023</v>
-      </c>
-      <c r="I84" t="s">
-        <v>1109</v>
+        <v>462</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>936</v>
+      <c r="A85" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>869</v>
+        <v>357</v>
       </c>
       <c r="F85" t="s">
-        <v>1007</v>
+        <v>431</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>996</v>
+        <v>437</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>935</v>
+      <c r="A86" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>868</v>
+        <v>360</v>
       </c>
       <c r="F86" t="s">
-        <v>1007</v>
+        <v>431</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>995</v>
-      </c>
-      <c r="H86" t="s">
-        <v>1101</v>
-      </c>
-      <c r="I86" t="s">
-        <v>1109</v>
+        <v>440</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>934</v>
+      <c r="A87" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>867</v>
+        <v>392</v>
       </c>
       <c r="F87" t="s">
-        <v>1007</v>
+        <v>431</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>994</v>
+        <v>472</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>670</v>
+      <c r="A88" t="s">
+        <v>1085</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>648</v>
+        <v>16</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>816</v>
+        <v>371</v>
+      </c>
+      <c r="F88" t="s">
+        <v>431</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>721</v>
+        <v>451</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>436</v>
+      <c r="A89" t="s">
+        <v>1086</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="F89" t="s">
         <v>431</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="H89" t="s">
-        <v>1059</v>
-      </c>
-      <c r="I89" t="s">
-        <v>1110</v>
+        <v>478</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>442</v>
+      <c r="A90" t="s">
+        <v>1087</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>362</v>
+        <v>406</v>
       </c>
       <c r="F90" t="s">
         <v>431</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>522</v>
+        <v>486</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>671</v>
+      <c r="A91" t="s">
+        <v>1088</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>644</v>
+        <v>16</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>816</v>
+        <v>414</v>
+      </c>
+      <c r="F91" t="s">
+        <v>431</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>722</v>
+        <v>494</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>476</v>
+      <c r="A92" t="s">
+        <v>1089</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F92" t="s">
         <v>431</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>556</v>
+        <v>468</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>933</v>
+      <c r="A93" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>866</v>
+        <v>370</v>
       </c>
       <c r="F93" t="s">
-        <v>1007</v>
+        <v>431</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>993</v>
-      </c>
-      <c r="H93" t="s">
-        <v>1100</v>
-      </c>
-      <c r="I93" t="s">
-        <v>1109</v>
+        <v>450</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>694</v>
+      <c r="A94" t="s">
+        <v>1091</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>644</v>
+        <v>16</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>816</v>
+        <v>390</v>
+      </c>
+      <c r="F94" t="s">
+        <v>431</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="H94" t="s">
-        <v>1069</v>
-      </c>
-      <c r="I94" t="s">
-        <v>1110</v>
+        <v>470</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>932</v>
+      <c r="A95" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>865</v>
+        <v>374</v>
       </c>
       <c r="F95" t="s">
-        <v>1007</v>
+        <v>431</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>992</v>
-      </c>
-      <c r="H95" t="s">
-        <v>1099</v>
-      </c>
-      <c r="I95" t="s">
-        <v>1109</v>
+        <v>454</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>482</v>
+      <c r="A96" t="s">
+        <v>1093</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="F96" t="s">
         <v>431</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>1094</v>
+      </c>
       <c r="C97" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>298</v>
+        <v>369</v>
       </c>
       <c r="F97" t="s">
-        <v>325</v>
+        <v>431</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>931</v>
+        <v>449</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>864</v>
+        <v>394</v>
       </c>
       <c r="F98" t="s">
-        <v>1007</v>
+        <v>431</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>711</v>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>1096</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>648</v>
+        <v>16</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>816</v>
+        <v>383</v>
+      </c>
+      <c r="F99" t="s">
+        <v>431</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>434</v>
+        <v>463</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>1097</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>354</v>
+        <v>424</v>
       </c>
       <c r="F100" t="s">
         <v>431</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>498</v>
+        <v>504</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>1098</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F101" t="s">
         <v>431</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>682</v>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>1099</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>651</v>
+        <v>16</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>816</v>
+        <v>420</v>
+      </c>
+      <c r="F102" t="s">
+        <v>431</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>483</v>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>1100</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F103" t="s">
         <v>431</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>469</v>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>1101</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="F104" t="s">
         <v>431</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>930</v>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>863</v>
+        <v>365</v>
       </c>
       <c r="F105" t="s">
-        <v>1007</v>
+        <v>431</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>503</v>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>1103</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="F106" t="s">
         <v>431</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>88</v>
+        <v>477</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>1104</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>271</v>
+        <v>367</v>
+      </c>
+      <c r="F107" t="s">
+        <v>431</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H107" t="s">
-        <v>1024</v>
-      </c>
-      <c r="I107" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>439</v>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>1105</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>359</v>
+        <v>426</v>
       </c>
       <c r="F108" t="s">
         <v>431</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>686</v>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>1106</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>653</v>
+        <v>16</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>816</v>
+        <v>380</v>
+      </c>
+      <c r="F109" t="s">
+        <v>431</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>92</v>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>1107</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>271</v>
+        <v>421</v>
+      </c>
+      <c r="F110" t="s">
+        <v>431</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H110" t="s">
-        <v>1025</v>
-      </c>
-      <c r="I110" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>459</v>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>1108</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F111" t="s">
         <v>431</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>97</v>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>1109</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>271</v>
+        <v>355</v>
+      </c>
+      <c r="F112" t="s">
+        <v>431</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H112" t="s">
-        <v>1026</v>
-      </c>
-      <c r="I112" t="s">
-        <v>1109</v>
+        <v>435</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>663</v>
+      <c r="A113" t="s">
+        <v>1110</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>643</v>
+        <v>16</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>816</v>
+        <v>368</v>
+      </c>
+      <c r="F113" t="s">
+        <v>431</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="H113" s="4" t="s">
-        <v>1061</v>
-      </c>
-      <c r="I113" t="s">
-        <v>1110</v>
+        <v>448</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>101</v>
+      <c r="A114" t="s">
+        <v>1111</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>271</v>
+        <v>430</v>
+      </c>
+      <c r="F114" t="s">
+        <v>431</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H114" t="s">
-        <v>1027</v>
-      </c>
-      <c r="I114" t="s">
-        <v>1109</v>
+        <v>510</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
-        <v>481</v>
+      <c r="A115" t="s">
+        <v>1112</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>401</v>
+        <v>429</v>
       </c>
       <c r="F115" t="s">
         <v>431</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>561</v>
+        <v>509</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C116" s="1" t="s">
-        <v>16</v>
+      <c r="A116" s="1" t="s">
+        <v>870</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>300</v>
+        <v>803</v>
       </c>
       <c r="F116" t="s">
-        <v>325</v>
+        <v>927</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>561</v>
+        <v>348</v>
+      </c>
+      <c r="H116" t="s">
+        <v>976</v>
+      </c>
+      <c r="I116" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>929</v>
+        <v>869</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>862</v>
+        <v>802</v>
       </c>
       <c r="F117" t="s">
-        <v>1007</v>
+        <v>927</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>989</v>
+        <v>926</v>
       </c>
       <c r="H117" t="s">
-        <v>1098</v>
+        <v>1026</v>
       </c>
       <c r="I117" t="s">
-        <v>1110</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>662</v>
+        <v>868</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>816</v>
+        <v>801</v>
+      </c>
+      <c r="F118" t="s">
+        <v>927</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>762</v>
+        <v>637</v>
+      </c>
+      <c r="H118" t="s">
+        <v>1025</v>
+      </c>
+      <c r="I118" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>644</v>
+        <v>867</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>816</v>
+        <v>800</v>
+      </c>
+      <c r="F119" t="s">
+        <v>927</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>751</v>
+        <v>925</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>16</v>
+        <v>866</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>385</v>
+        <v>799</v>
       </c>
       <c r="F120" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>545</v>
+        <v>924</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C121" s="1" t="s">
-        <v>16</v>
+      <c r="A121" s="1" t="s">
+        <v>865</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>301</v>
+        <v>798</v>
       </c>
       <c r="F121" t="s">
-        <v>325</v>
+        <v>927</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>16</v>
+        <v>864</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>376</v>
+        <v>797</v>
       </c>
       <c r="F122" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>536</v>
+        <v>922</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>928</v>
+        <v>863</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>861</v>
+        <v>796</v>
       </c>
       <c r="F123" t="s">
-        <v>1007</v>
+        <v>927</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>1096</v>
-      </c>
-      <c r="H123" t="s">
-        <v>1097</v>
-      </c>
-      <c r="I123" t="s">
-        <v>1109</v>
+        <v>923</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="F124" t="s">
         <v>927</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="F124" t="s">
-        <v>1007</v>
-      </c>
       <c r="G124" s="3" t="s">
-        <v>988</v>
+        <v>921</v>
+      </c>
+      <c r="H124" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I124" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>2</v>
+        <v>861</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>271</v>
+        <v>794</v>
+      </c>
+      <c r="F125" t="s">
+        <v>927</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>988</v>
+        <v>920</v>
+      </c>
+      <c r="H125" t="s">
+        <v>1023</v>
+      </c>
+      <c r="I125" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C126" s="1" t="s">
-        <v>16</v>
+      <c r="A126" s="1" t="s">
+        <v>860</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>303</v>
+        <v>793</v>
       </c>
       <c r="F126" t="s">
-        <v>325</v>
+        <v>927</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>304</v>
+        <v>919</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>926</v>
+        <v>859</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>859</v>
+        <v>792</v>
       </c>
       <c r="F127" t="s">
-        <v>1007</v>
+        <v>927</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>987</v>
+        <v>918</v>
+      </c>
+      <c r="H127" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I127" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>2</v>
+        <v>858</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>271</v>
+        <v>791</v>
+      </c>
+      <c r="F128" t="s">
+        <v>927</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>109</v>
+        <v>917</v>
       </c>
       <c r="H128" t="s">
-        <v>1028</v>
+        <v>941</v>
       </c>
       <c r="I128" t="s">
-        <v>1109</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>16</v>
+        <v>857</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>342</v>
+        <v>790</v>
       </c>
       <c r="F129" t="s">
-        <v>331</v>
+        <v>927</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>2</v>
+        <v>856</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>271</v>
+        <v>789</v>
+      </c>
+      <c r="F130" t="s">
+        <v>927</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="I130" t="s">
-        <v>1111</v>
+        <v>916</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>925</v>
+        <v>855</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>858</v>
+        <v>788</v>
       </c>
       <c r="F131" t="s">
-        <v>1007</v>
+        <v>927</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>113</v>
+        <v>915</v>
       </c>
       <c r="H131" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I131" t="s">
         <v>1029</v>
-      </c>
-      <c r="I131" t="s">
-        <v>1111</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>924</v>
+        <v>854</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>857</v>
+        <v>787</v>
       </c>
       <c r="F132" t="s">
-        <v>1007</v>
+        <v>927</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>986</v>
-      </c>
-      <c r="H132" t="s">
-        <v>1095</v>
-      </c>
-      <c r="I132" t="s">
-        <v>1111</v>
+        <v>914</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>2</v>
+        <v>853</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>271</v>
+        <v>786</v>
+      </c>
+      <c r="F133" t="s">
+        <v>927</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>117</v>
+        <v>913</v>
+      </c>
+      <c r="H133" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I133" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>16</v>
+        <v>852</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>343</v>
+        <v>785</v>
       </c>
       <c r="F134" t="s">
-        <v>331</v>
+        <v>927</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>117</v>
+        <v>912</v>
+      </c>
+      <c r="H134" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I134" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>660</v>
+        <v>851</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>816</v>
+        <v>784</v>
+      </c>
+      <c r="F135" t="s">
+        <v>927</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>757</v>
+        <v>911</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C136" s="1" t="s">
-        <v>16</v>
+      <c r="A136" s="1" t="s">
+        <v>850</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>305</v>
+        <v>783</v>
       </c>
       <c r="F136" t="s">
-        <v>325</v>
+        <v>927</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="H136" t="s">
-        <v>1051</v>
-      </c>
-      <c r="I136" t="s">
-        <v>1110</v>
+        <v>910</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>648</v>
+        <v>849</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>816</v>
+        <v>782</v>
+      </c>
+      <c r="F137" t="s">
+        <v>927</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>743</v>
+        <v>909</v>
+      </c>
+      <c r="H137" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I137" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>658</v>
+        <v>848</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>816</v>
+        <v>781</v>
+      </c>
+      <c r="F138" t="s">
+        <v>927</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>752</v>
+        <v>1016</v>
       </c>
       <c r="H138" t="s">
-        <v>1074</v>
+        <v>1017</v>
       </c>
       <c r="I138" t="s">
-        <v>1110</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>923</v>
+        <v>847</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>856</v>
+        <v>780</v>
       </c>
       <c r="F139" t="s">
-        <v>1007</v>
+        <v>927</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="H139" t="s">
-        <v>1074</v>
-      </c>
-      <c r="I139" t="s">
-        <v>1110</v>
+        <v>908</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>123</v>
+        <v>846</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>271</v>
+        <v>779</v>
+      </c>
+      <c r="F140" t="s">
+        <v>927</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>122</v>
+        <v>907</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C141" s="1" t="s">
-        <v>16</v>
+      <c r="A141" s="1" t="s">
+        <v>845</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>280</v>
+        <v>778</v>
       </c>
       <c r="F141" t="s">
-        <v>325</v>
+        <v>927</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>307</v>
+        <v>113</v>
+      </c>
+      <c r="H141" t="s">
+        <v>949</v>
+      </c>
+      <c r="I141" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>16</v>
+        <v>844</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>425</v>
+        <v>777</v>
       </c>
       <c r="F142" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>585</v>
+        <v>906</v>
+      </c>
+      <c r="H142" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I142" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>16</v>
+        <v>843</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>387</v>
+        <v>776</v>
       </c>
       <c r="F143" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>547</v>
+        <v>672</v>
+      </c>
+      <c r="H143" t="s">
+        <v>994</v>
+      </c>
+      <c r="I143" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>16</v>
+        <v>842</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>375</v>
+        <v>775</v>
       </c>
       <c r="F144" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>535</v>
+        <v>905</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>922</v>
+        <v>841</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>855</v>
+        <v>774</v>
       </c>
       <c r="F145" t="s">
-        <v>1007</v>
+        <v>927</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>985</v>
+        <v>904</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>26</v>
+        <v>840</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>271</v>
+        <v>773</v>
+      </c>
+      <c r="F146" t="s">
+        <v>927</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>127</v>
+        <v>903</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C147" s="1" t="s">
-        <v>16</v>
+      <c r="A147" s="1" t="s">
+        <v>839</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>308</v>
+        <v>772</v>
       </c>
       <c r="F147" t="s">
-        <v>325</v>
+        <v>927</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>309</v>
+        <v>902</v>
+      </c>
+      <c r="H147" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I147" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>16</v>
+        <v>838</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>405</v>
+        <v>771</v>
       </c>
       <c r="F148" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>565</v>
+        <v>901</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>921</v>
+        <v>837</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>854</v>
+        <v>770</v>
       </c>
       <c r="F149" t="s">
-        <v>1007</v>
+        <v>927</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>984</v>
+        <v>900</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="I149" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>920</v>
+        <v>836</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>853</v>
+        <v>769</v>
       </c>
       <c r="F150" t="s">
-        <v>1007</v>
+        <v>927</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>983</v>
+        <v>899</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>132</v>
+        <v>835</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>271</v>
+        <v>768</v>
+      </c>
+      <c r="F151" t="s">
+        <v>927</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>131</v>
+        <v>898</v>
       </c>
       <c r="H151" t="s">
-        <v>1030</v>
+        <v>1013</v>
       </c>
       <c r="I151" t="s">
-        <v>1110</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>919</v>
+        <v>834</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>852</v>
+        <v>767</v>
       </c>
       <c r="F152" t="s">
-        <v>1007</v>
+        <v>927</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>982</v>
+        <v>897</v>
       </c>
       <c r="H152" t="s">
-        <v>1094</v>
+        <v>1012</v>
       </c>
       <c r="I152" t="s">
-        <v>1111</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>16</v>
+        <v>833</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>352</v>
+        <v>766</v>
       </c>
       <c r="F153" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>512</v>
+        <v>896</v>
+      </c>
+      <c r="H153" t="s">
+        <v>1011</v>
+      </c>
+      <c r="I153" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>656</v>
+        <v>832</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>816</v>
+        <v>765</v>
+      </c>
+      <c r="F154" t="s">
+        <v>927</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>742</v>
+        <v>895</v>
       </c>
       <c r="H154" t="s">
-        <v>1068</v>
+        <v>1010</v>
       </c>
       <c r="I154" t="s">
-        <v>1110</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>2</v>
+        <v>831</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>271</v>
+        <v>764</v>
+      </c>
+      <c r="F155" t="s">
+        <v>927</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>136</v>
+        <v>894</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C156" s="1" t="s">
-        <v>16</v>
+      <c r="A156" s="1" t="s">
+        <v>830</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>310</v>
+        <v>763</v>
       </c>
       <c r="F156" t="s">
-        <v>325</v>
+        <v>927</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>311</v>
+        <v>893</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>2</v>
+        <v>829</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>271</v>
+        <v>762</v>
+      </c>
+      <c r="F157" t="s">
+        <v>927</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>140</v>
+        <v>892</v>
       </c>
       <c r="H157" t="s">
-        <v>1031</v>
+        <v>1009</v>
       </c>
       <c r="I157" t="s">
-        <v>1109</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>644</v>
+        <v>828</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>816</v>
+        <v>761</v>
+      </c>
+      <c r="F158" t="s">
+        <v>927</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H158" t="s">
-        <v>1031</v>
-      </c>
-      <c r="I158" t="s">
-        <v>1109</v>
+        <v>891</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>918</v>
+        <v>827</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>851</v>
+        <v>760</v>
       </c>
       <c r="F159" t="s">
-        <v>1007</v>
+        <v>927</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>981</v>
+        <v>890</v>
+      </c>
+      <c r="H159" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I159" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>917</v>
+        <v>826</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>850</v>
+        <v>759</v>
       </c>
       <c r="F160" t="s">
+        <v>927</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="H160" t="s">
         <v>1007</v>
       </c>
-      <c r="G160" s="3" t="s">
-        <v>980</v>
-      </c>
-      <c r="H160" s="2" t="s">
-        <v>1107</v>
-      </c>
       <c r="I160" t="s">
-        <v>1109</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>916</v>
+        <v>825</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>849</v>
+        <v>758</v>
       </c>
       <c r="F161" t="s">
-        <v>1007</v>
+        <v>927</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>979</v>
+        <v>888</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>648</v>
+        <v>824</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>816</v>
+        <v>757</v>
+      </c>
+      <c r="F162" t="s">
+        <v>927</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>725</v>
+        <v>887</v>
+      </c>
+      <c r="H162" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I162" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>16</v>
+        <v>823</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>364</v>
+        <v>756</v>
       </c>
       <c r="F163" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>524</v>
+        <v>886</v>
+      </c>
+      <c r="H163" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I163" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>648</v>
+        <v>822</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>816</v>
+        <v>755</v>
+      </c>
+      <c r="F164" t="s">
+        <v>927</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>755</v>
+        <v>885</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>2</v>
+        <v>821</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>271</v>
+        <v>754</v>
+      </c>
+      <c r="F165" t="s">
+        <v>927</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>144</v>
+        <v>884</v>
       </c>
       <c r="H165" t="s">
-        <v>1032</v>
+        <v>1004</v>
       </c>
       <c r="I165" t="s">
-        <v>1109</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C166" s="1" t="s">
-        <v>16</v>
+      <c r="A166" s="1" t="s">
+        <v>820</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>312</v>
+        <v>753</v>
       </c>
       <c r="F166" t="s">
-        <v>325</v>
+        <v>927</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>313</v>
+        <v>883</v>
       </c>
       <c r="H166" t="s">
-        <v>1052</v>
+        <v>1003</v>
       </c>
       <c r="I166" t="s">
-        <v>1109</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>915</v>
+        <v>819</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>848</v>
+        <v>752</v>
       </c>
       <c r="F167" t="s">
-        <v>1007</v>
+        <v>927</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>978</v>
+        <v>882</v>
       </c>
       <c r="H167" t="s">
-        <v>1093</v>
+        <v>1002</v>
       </c>
       <c r="I167" t="s">
-        <v>1111</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>2</v>
+        <v>818</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>271</v>
+        <v>751</v>
+      </c>
+      <c r="F168" t="s">
+        <v>927</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>148</v>
+        <v>881</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>16</v>
+        <v>817</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>344</v>
+        <v>750</v>
       </c>
       <c r="F169" t="s">
-        <v>331</v>
+        <v>927</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>148</v>
+        <v>880</v>
+      </c>
+      <c r="H169" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I169" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>914</v>
+        <v>816</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>847</v>
+        <v>749</v>
       </c>
       <c r="F170" t="s">
-        <v>1007</v>
+        <v>927</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>977</v>
-      </c>
-      <c r="H170" t="s">
-        <v>1092</v>
-      </c>
-      <c r="I170" t="s">
-        <v>1110</v>
+        <v>317</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>16</v>
+        <v>815</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>407</v>
+        <v>748</v>
       </c>
       <c r="F171" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>567</v>
+        <v>879</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>2</v>
+        <v>814</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>271</v>
+        <v>747</v>
+      </c>
+      <c r="F172" t="s">
+        <v>927</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>152</v>
+        <v>878</v>
+      </c>
+      <c r="H172" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I172" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>913</v>
+        <v>813</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>846</v>
+        <v>746</v>
       </c>
       <c r="F173" t="s">
-        <v>1007</v>
+        <v>927</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>976</v>
-      </c>
-      <c r="H173" t="s">
-        <v>1091</v>
-      </c>
-      <c r="I173" t="s">
-        <v>1109</v>
+        <v>877</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>647</v>
+        <v>812</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>816</v>
+        <v>745</v>
+      </c>
+      <c r="F174" t="s">
+        <v>927</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>719</v>
+        <v>876</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>2</v>
+        <v>811</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>271</v>
+        <v>744</v>
+      </c>
+      <c r="F175" t="s">
+        <v>927</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>156</v>
+        <v>875</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>912</v>
+        <v>810</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>845</v>
+        <v>743</v>
       </c>
       <c r="F176" t="s">
-        <v>1007</v>
+        <v>927</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>975</v>
-      </c>
-      <c r="H176" t="s">
-        <v>1090</v>
-      </c>
-      <c r="I176" t="s">
-        <v>1110</v>
+        <v>669</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>161</v>
+        <v>809</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>271</v>
+        <v>742</v>
+      </c>
+      <c r="F177" t="s">
+        <v>927</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H177" t="s">
-        <v>1033</v>
-      </c>
-      <c r="I177" t="s">
-        <v>1111</v>
+        <v>874</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>16</v>
+        <v>808</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>373</v>
+        <v>741</v>
       </c>
       <c r="F178" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>533</v>
+        <v>873</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>16</v>
+        <v>807</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>419</v>
+        <v>740</v>
       </c>
       <c r="F179" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>579</v>
+        <v>872</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>644</v>
+        <v>806</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>816</v>
+        <v>739</v>
+      </c>
+      <c r="F180" t="s">
+        <v>927</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>726</v>
+        <v>871</v>
+      </c>
+      <c r="H180" t="s">
+        <v>999</v>
+      </c>
+      <c r="I180" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>911</v>
+        <v>805</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>844</v>
+        <v>738</v>
       </c>
       <c r="F181" t="s">
-        <v>1007</v>
+        <v>927</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>974</v>
+        <v>261</v>
+      </c>
+      <c r="H181" t="s">
+        <v>964</v>
+      </c>
+      <c r="I181" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>16</v>
+        <v>804</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>384</v>
+        <v>737</v>
       </c>
       <c r="F182" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>544</v>
+        <v>667</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>910</v>
+        <v>0</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="F183" t="s">
-        <v>1007</v>
+        <v>3</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>973</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>909</v>
+        <v>5</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="F184" t="s">
-        <v>1007</v>
+        <v>7</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>972</v>
+        <v>6</v>
       </c>
       <c r="H184" t="s">
-        <v>1089</v>
+        <v>928</v>
       </c>
       <c r="I184" t="s">
-        <v>1109</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>488</v>
+        <v>9</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="F185" t="s">
-        <v>431</v>
+        <v>12</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>568</v>
+        <v>10</v>
+      </c>
+      <c r="H185" t="s">
+        <v>929</v>
+      </c>
+      <c r="I185" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>509</v>
+        <v>14</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="F186" t="s">
-        <v>431</v>
+        <v>17</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>588</v>
+        <v>15</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>908</v>
+        <v>19</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="F187" t="s">
-        <v>1007</v>
+        <v>22</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>971</v>
+        <v>20</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>466</v>
+        <v>24</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="F188" t="s">
-        <v>431</v>
+        <v>27</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>546</v>
+        <v>25</v>
+      </c>
+      <c r="H188" t="s">
+        <v>930</v>
+      </c>
+      <c r="I188" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>433</v>
+        <v>29</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="F189" t="s">
-        <v>431</v>
+        <v>31</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>513</v>
+        <v>30</v>
       </c>
       <c r="H189" t="s">
-        <v>1058</v>
+        <v>931</v>
       </c>
       <c r="I189" t="s">
-        <v>1110</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>164</v>
+        <v>33</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>271</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>165</v>
+        <v>34</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>168</v>
+        <v>37</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>170</v>
+        <v>39</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>271</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="H191" t="s">
-        <v>1034</v>
+        <v>932</v>
       </c>
       <c r="I191" t="s">
-        <v>1110</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>462</v>
+        <v>41</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="F192" t="s">
-        <v>431</v>
+        <v>43</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>542</v>
+        <v>42</v>
+      </c>
+      <c r="H192" t="s">
+        <v>933</v>
+      </c>
+      <c r="I192" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>437</v>
+        <v>45</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="F193" t="s">
-        <v>431</v>
+        <v>47</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>517</v>
+        <v>46</v>
+      </c>
+      <c r="H193" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>907</v>
+        <v>49</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="F194" t="s">
-        <v>1007</v>
+        <v>51</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>970</v>
-      </c>
-      <c r="H194" t="s">
-        <v>1088</v>
-      </c>
-      <c r="I194" t="s">
-        <v>1111</v>
+        <v>50</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>906</v>
+        <v>53</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="F195" t="s">
-        <v>1007</v>
+        <v>55</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>969</v>
-      </c>
-      <c r="H195" t="s">
-        <v>1087</v>
+        <v>54</v>
+      </c>
+      <c r="H195" s="2" t="s">
+        <v>935</v>
       </c>
       <c r="I195" t="s">
-        <v>1110</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>905</v>
+        <v>57</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="F196" t="s">
-        <v>1007</v>
+        <v>59</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>968</v>
+        <v>58</v>
+      </c>
+      <c r="H196" t="s">
+        <v>936</v>
+      </c>
+      <c r="I196" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>440</v>
+        <v>61</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="F197" t="s">
-        <v>431</v>
+        <v>63</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>520</v>
+        <v>62</v>
+      </c>
+      <c r="H197" t="s">
+        <v>937</v>
+      </c>
+      <c r="I197" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>703</v>
+        <v>65</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>644</v>
+        <v>21</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>804</v>
+        <v>67</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>631</v>
+        <v>68</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>816</v>
+        <v>271</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>753</v>
+        <v>66</v>
       </c>
       <c r="H198" t="s">
-        <v>1075</v>
+        <v>938</v>
       </c>
       <c r="I198" t="s">
-        <v>1109</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>696</v>
+        <v>69</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>657</v>
+        <v>2</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>797</v>
+        <v>71</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>624</v>
+        <v>72</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>816</v>
+        <v>271</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>746</v>
+        <v>70</v>
       </c>
       <c r="H199" t="s">
-        <v>1070</v>
+        <v>939</v>
       </c>
       <c r="I199" t="s">
-        <v>1110</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>904</v>
+        <v>73</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="F200" t="s">
-        <v>1007</v>
+        <v>75</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>967</v>
+        <v>74</v>
       </c>
       <c r="H200" t="s">
-        <v>1086</v>
+        <v>940</v>
       </c>
       <c r="I200" t="s">
-        <v>1109</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>271</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H201" t="s">
-        <v>1035</v>
-      </c>
-      <c r="I201" t="s">
-        <v>1109</v>
+        <v>78</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="C202" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F202" t="s">
-        <v>325</v>
+        <v>83</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>315</v>
+        <v>82</v>
       </c>
       <c r="H202" t="s">
-        <v>1053</v>
+        <v>941</v>
       </c>
       <c r="I202" t="s">
-        <v>1109</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>472</v>
+        <v>85</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="F203" t="s">
-        <v>431</v>
+        <v>86</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>552</v>
+        <v>942</v>
+      </c>
+      <c r="H203" t="s">
+        <v>943</v>
+      </c>
+      <c r="I203" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>672</v>
+        <v>88</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>644</v>
+        <v>2</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>773</v>
+        <v>90</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>600</v>
+        <v>91</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>816</v>
+        <v>271</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>723</v>
+        <v>89</v>
       </c>
       <c r="H204" t="s">
-        <v>1063</v>
+        <v>944</v>
       </c>
       <c r="I204" t="s">
-        <v>1110</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>271</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>177</v>
+        <v>93</v>
       </c>
       <c r="H205" t="s">
-        <v>1036</v>
+        <v>945</v>
       </c>
       <c r="I205" t="s">
-        <v>1109</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>451</v>
+        <v>97</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="F206" t="s">
-        <v>431</v>
+        <v>99</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>531</v>
+        <v>98</v>
+      </c>
+      <c r="H206" t="s">
+        <v>946</v>
+      </c>
+      <c r="I206" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>903</v>
+        <v>101</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="F207" t="s">
-        <v>1007</v>
+        <v>103</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>966</v>
+        <v>102</v>
       </c>
       <c r="H207" t="s">
-        <v>1085</v>
+        <v>947</v>
       </c>
       <c r="I207" t="s">
-        <v>1109</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>902</v>
+        <v>105</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="F208" t="s">
-        <v>1007</v>
+        <v>106</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>965</v>
+        <v>908</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>337</v>
+        <v>108</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>328</v>
+        <v>110</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="F209" t="s">
-        <v>331</v>
+        <v>111</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>350</v>
+        <v>109</v>
       </c>
       <c r="H209" t="s">
-        <v>1057</v>
+        <v>948</v>
       </c>
       <c r="I209" t="s">
-        <v>1110</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>478</v>
+        <v>112</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="F210" t="s">
-        <v>431</v>
+        <v>114</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>558</v>
+        <v>113</v>
+      </c>
+      <c r="H210" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="I210" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>182</v>
+        <v>2</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>271</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="H211" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I211" t="s">
-        <v>1111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>901</v>
+        <v>121</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="F212" t="s">
-        <v>1007</v>
+        <v>124</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>964</v>
-      </c>
-      <c r="H212" t="s">
-        <v>1084</v>
-      </c>
-      <c r="I212" t="s">
-        <v>1110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>900</v>
+        <v>126</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="F213" t="s">
-        <v>1007</v>
+        <v>128</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>963</v>
-      </c>
-      <c r="H213" t="s">
-        <v>1083</v>
-      </c>
-      <c r="I213" t="s">
-        <v>1109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>486</v>
+        <v>130</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="F214" t="s">
-        <v>431</v>
+        <v>133</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>566</v>
+        <v>131</v>
+      </c>
+      <c r="H214" t="s">
+        <v>950</v>
+      </c>
+      <c r="I214" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>681</v>
+        <v>135</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>650</v>
+        <v>2</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>782</v>
+        <v>137</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>609</v>
+        <v>138</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>816</v>
+        <v>271</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>731</v>
+        <v>136</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>687</v>
+        <v>139</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>648</v>
+        <v>2</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>788</v>
+        <v>141</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>615</v>
+        <v>142</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>816</v>
+        <v>271</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>737</v>
+        <v>140</v>
+      </c>
+      <c r="H216" t="s">
+        <v>951</v>
+      </c>
+      <c r="I216" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>494</v>
+        <v>143</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="F217" t="s">
-        <v>431</v>
+        <v>145</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>574</v>
+        <v>144</v>
+      </c>
+      <c r="H217" t="s">
+        <v>952</v>
+      </c>
+      <c r="I217" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>684</v>
+        <v>147</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>652</v>
+        <v>2</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>785</v>
+        <v>149</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>612</v>
+        <v>150</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>816</v>
+        <v>271</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="H218" t="s">
-        <v>1066</v>
-      </c>
-      <c r="I218" t="s">
-        <v>1110</v>
+        <v>148</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>468</v>
+        <v>151</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="F219" t="s">
-        <v>431</v>
+        <v>153</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>548</v>
+        <v>152</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>450</v>
+        <v>155</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="F220" t="s">
-        <v>431</v>
+        <v>157</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>530</v>
+        <v>156</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>2</v>
+        <v>161</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>271</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>186</v>
+        <v>160</v>
+      </c>
+      <c r="H221" t="s">
+        <v>953</v>
+      </c>
+      <c r="I221" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>470</v>
+        <v>164</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="F222" t="s">
-        <v>431</v>
+        <v>166</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>550</v>
+        <v>165</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>271</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>190</v>
+        <v>169</v>
+      </c>
+      <c r="H223" t="s">
+        <v>954</v>
+      </c>
+      <c r="I223" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>271</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>194</v>
+        <v>173</v>
+      </c>
+      <c r="H224" t="s">
+        <v>955</v>
+      </c>
+      <c r="I224" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>899</v>
+        <v>176</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="F225" t="s">
-        <v>1007</v>
+        <v>178</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>962</v>
+        <v>177</v>
       </c>
       <c r="H225" t="s">
-        <v>1082</v>
+        <v>956</v>
       </c>
       <c r="I225" t="s">
-        <v>1110</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>709</v>
+        <v>180</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>661</v>
+        <v>182</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>810</v>
+        <v>183</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>637</v>
+        <v>184</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>816</v>
+        <v>271</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>758</v>
+        <v>181</v>
       </c>
       <c r="H226" t="s">
-        <v>1077</v>
+        <v>957</v>
       </c>
       <c r="I226" t="s">
-        <v>1109</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>898</v>
+        <v>185</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="F227" t="s">
-        <v>1007</v>
+        <v>187</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>961</v>
+        <v>186</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>454</v>
+        <v>189</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F228" t="s">
-        <v>431</v>
+        <v>191</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>534</v>
+        <v>190</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>492</v>
+        <v>193</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="F229" t="s">
-        <v>431</v>
+        <v>195</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>572</v>
+        <v>194</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>449</v>
+        <v>197</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="F230" t="s">
-        <v>431</v>
+        <v>200</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>529</v>
+        <v>198</v>
+      </c>
+      <c r="H230" t="s">
+        <v>958</v>
+      </c>
+      <c r="I230" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>474</v>
+        <v>202</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="F231" t="s">
-        <v>431</v>
+        <v>204</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>554</v>
+        <v>203</v>
+      </c>
+      <c r="H231" t="s">
+        <v>959</v>
+      </c>
+      <c r="I231" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>897</v>
+        <v>206</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="F232" t="s">
-        <v>1007</v>
+        <v>209</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G232" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H232" t="s">
         <v>960</v>
       </c>
-      <c r="H232" t="s">
-        <v>1081</v>
-      </c>
       <c r="I232" t="s">
-        <v>1111</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>689</v>
+        <v>211</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>654</v>
+        <v>2</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>790</v>
+        <v>213</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>617</v>
+        <v>214</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>816</v>
+        <v>271</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>739</v>
+        <v>212</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>463</v>
+        <v>215</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="F234" t="s">
-        <v>431</v>
+        <v>217</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>543</v>
+        <v>216</v>
+      </c>
+      <c r="H234" t="s">
+        <v>961</v>
+      </c>
+      <c r="I234" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>271</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="H235" t="s">
-        <v>1038</v>
+        <v>962</v>
       </c>
       <c r="I235" t="s">
-        <v>1111</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>271</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="H236" t="s">
-        <v>1039</v>
-      </c>
-      <c r="I236" t="s">
-        <v>1110</v>
+        <v>225</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>208</v>
+        <v>26</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>271</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="H237" t="s">
-        <v>1040</v>
-      </c>
-      <c r="I237" t="s">
-        <v>1111</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="H237" s="4"/>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>505</v>
+        <v>232</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="F238" t="s">
-        <v>431</v>
+        <v>234</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>584</v>
+        <v>233</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>271</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>490</v>
+        <v>240</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="F240" t="s">
-        <v>431</v>
+        <v>242</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>570</v>
+        <v>241</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="C241" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="F241" t="s">
-        <v>325</v>
+        <v>246</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>317</v>
+        <v>245</v>
       </c>
       <c r="H241" t="s">
-        <v>1054</v>
+        <v>963</v>
       </c>
       <c r="I241" t="s">
-        <v>1110</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>338</v>
+        <v>248</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>329</v>
+        <v>250</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F242" t="s">
-        <v>331</v>
+        <v>251</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>317</v>
+        <v>249</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>896</v>
+        <v>252</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="F243" t="s">
-        <v>1007</v>
+        <v>254</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>317</v>
+        <v>253</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>215</v>
+        <v>256</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>271</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="H244" t="s">
-        <v>1041</v>
-      </c>
-      <c r="I244" t="s">
-        <v>1109</v>
+        <v>257</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>221</v>
+        <v>262</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>222</v>
+        <v>263</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>271</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>220</v>
+        <v>261</v>
       </c>
       <c r="H245" t="s">
-        <v>1042</v>
+        <v>964</v>
       </c>
       <c r="I245" t="s">
-        <v>1109</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>224</v>
+        <v>265</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>227</v>
+        <v>268</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>271</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>225</v>
+        <v>266</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>501</v>
+        <v>611</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>16</v>
+        <v>575</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F247" t="s">
-        <v>431</v>
+        <v>712</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>580</v>
+        <v>661</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>484</v>
+        <v>598</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>16</v>
+        <v>568</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="F248" t="s">
-        <v>431</v>
+        <v>699</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>564</v>
+        <v>648</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>441</v>
+        <v>630</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>16</v>
+        <v>565</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="F249" t="s">
-        <v>431</v>
+        <v>731</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G249" s="3" t="s">
-        <v>521</v>
+        <v>679</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>228</v>
+        <v>627</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>26</v>
+        <v>564</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>230</v>
+        <v>728</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>231</v>
+        <v>555</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="H250" s="4"/>
+        <v>676</v>
+      </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A251" s="1" t="s">
+        <v>615</v>
+      </c>
       <c r="C251" s="1" t="s">
-        <v>16</v>
+        <v>568</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="F251" t="s">
-        <v>325</v>
+        <v>716</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G251" s="3" t="s">
-        <v>319</v>
+        <v>665</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>445</v>
+        <v>586</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>16</v>
+        <v>564</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F252" t="s">
-        <v>431</v>
+        <v>687</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>525</v>
+        <v>637</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>232</v>
+        <v>594</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>2</v>
+        <v>568</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>234</v>
+        <v>695</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>235</v>
+        <v>522</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G253" s="3" t="s">
-        <v>233</v>
+        <v>289</v>
+      </c>
+      <c r="H253" t="s">
+        <v>985</v>
+      </c>
+      <c r="I253" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>895</v>
+        <v>625</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>579</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="F254" t="s">
-        <v>1007</v>
+        <v>726</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>959</v>
+        <v>674</v>
+      </c>
+      <c r="H254" t="s">
+        <v>996</v>
+      </c>
+      <c r="I254" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>894</v>
+        <v>605</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>568</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="F255" t="s">
-        <v>1007</v>
+        <v>706</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>958</v>
+        <v>655</v>
       </c>
       <c r="H255" t="s">
-        <v>1080</v>
+        <v>987</v>
       </c>
       <c r="I255" t="s">
-        <v>1109</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>477</v>
+        <v>634</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>16</v>
+        <v>568</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F256" t="s">
-        <v>431</v>
+        <v>735</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G256" s="3" t="s">
-        <v>557</v>
+        <v>683</v>
+      </c>
+      <c r="H256" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="I256" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>688</v>
+        <v>620</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>644</v>
+        <v>564</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>789</v>
+        <v>721</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>616</v>
+        <v>548</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>816</v>
+        <v>736</v>
       </c>
       <c r="G257" s="3" t="s">
-        <v>738</v>
+        <v>670</v>
+      </c>
+      <c r="H257" t="s">
+        <v>993</v>
+      </c>
+      <c r="I257" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>665</v>
+        <v>597</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>645</v>
+        <v>568</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>766</v>
+        <v>698</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>593</v>
+        <v>525</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>816</v>
+        <v>736</v>
       </c>
       <c r="G258" s="3" t="s">
-        <v>716</v>
+        <v>647</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>447</v>
+        <v>624</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>16</v>
+        <v>565</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="F259" t="s">
-        <v>431</v>
+        <v>725</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G259" s="3" t="s">
-        <v>527</v>
+        <v>70</v>
+      </c>
+      <c r="H259" t="s">
+        <v>939</v>
+      </c>
+      <c r="I259" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>236</v>
+        <v>603</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>26</v>
+        <v>564</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>238</v>
+        <v>704</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>239</v>
+        <v>531</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>237</v>
+        <v>653</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>893</v>
+        <v>599</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>569</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="F261" t="s">
-        <v>1007</v>
+        <v>700</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G261" s="3" t="s">
-        <v>957</v>
+        <v>649</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>240</v>
+        <v>590</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>2</v>
+        <v>568</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>242</v>
+        <v>691</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>243</v>
+        <v>518</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G262" s="3" t="s">
-        <v>241</v>
+        <v>641</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>244</v>
+        <v>591</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>2</v>
+        <v>564</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>246</v>
+        <v>692</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>247</v>
+        <v>519</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G263" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="H263" t="s">
-        <v>1043</v>
-      </c>
-      <c r="I263" t="s">
-        <v>1109</v>
+        <v>642</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>248</v>
+        <v>614</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>2</v>
+        <v>564</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>250</v>
+        <v>715</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>251</v>
+        <v>542</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G264" s="3" t="s">
-        <v>249</v>
+        <v>664</v>
+      </c>
+      <c r="H264" t="s">
+        <v>989</v>
+      </c>
+      <c r="I264" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>892</v>
+        <v>631</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>568</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="F265" t="s">
-        <v>1007</v>
+        <v>732</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G265" s="3" t="s">
-        <v>956</v>
+        <v>680</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>891</v>
+        <v>602</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>571</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="F266" t="s">
-        <v>1007</v>
+        <v>703</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G266" s="3" t="s">
-        <v>955</v>
+        <v>652</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A267" s="1" t="s">
+        <v>606</v>
+      </c>
       <c r="C267" s="1" t="s">
-        <v>16</v>
+        <v>573</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F267" t="s">
-        <v>325</v>
+        <v>707</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G267" s="3" t="s">
-        <v>320</v>
+        <v>656</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>507</v>
+        <v>583</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>16</v>
+        <v>563</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="F268" t="s">
-        <v>431</v>
+        <v>684</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G268" s="3" t="s">
-        <v>586</v>
+        <v>635</v>
+      </c>
+      <c r="H268" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="I268" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>698</v>
+        <v>633</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>644</v>
+        <v>582</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>799</v>
+        <v>734</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>626</v>
+        <v>561</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>816</v>
+        <v>736</v>
       </c>
       <c r="G269" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="H269" t="s">
-        <v>1071</v>
-      </c>
-      <c r="I269" t="s">
-        <v>1111</v>
+        <v>682</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A270" s="1" t="s">
+        <v>621</v>
+      </c>
       <c r="C270" s="1" t="s">
-        <v>16</v>
+        <v>564</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="F270" t="s">
-        <v>325</v>
+        <v>722</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G270" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="H270" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I270" t="s">
-        <v>1110</v>
+        <v>671</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>667</v>
+        <v>628</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>646</v>
+        <v>580</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>768</v>
+        <v>729</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>595</v>
+        <v>556</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>816</v>
+        <v>736</v>
       </c>
       <c r="G271" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="H271" t="s">
-        <v>1062</v>
-      </c>
-      <c r="I271" t="s">
-        <v>1110</v>
+        <v>677</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>699</v>
+        <v>613</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>644</v>
+        <v>568</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>800</v>
+        <v>714</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>627</v>
+        <v>541</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>816</v>
+        <v>736</v>
       </c>
       <c r="G272" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="H272" t="s">
-        <v>1072</v>
-      </c>
-      <c r="I272" t="s">
-        <v>1110</v>
+        <v>663</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>890</v>
+        <v>622</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>578</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="F273" t="s">
-        <v>1007</v>
+        <v>723</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G273" s="3" t="s">
-        <v>749</v>
+        <v>672</v>
+      </c>
+      <c r="H273" t="s">
+        <v>994</v>
+      </c>
+      <c r="I273" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>339</v>
+        <v>612</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>16</v>
+        <v>576</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>330</v>
+        <v>713</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="F274" t="s">
-        <v>331</v>
+        <v>540</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G274" s="3" t="s">
-        <v>351</v>
+        <v>662</v>
+      </c>
+      <c r="H274" t="s">
+        <v>988</v>
+      </c>
+      <c r="I274" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>460</v>
+        <v>584</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>16</v>
+        <v>564</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F275" t="s">
-        <v>431</v>
+        <v>685</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G275" s="3" t="s">
-        <v>540</v>
+        <v>140</v>
+      </c>
+      <c r="H275" t="s">
+        <v>951</v>
+      </c>
+      <c r="I275" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>889</v>
+        <v>595</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>568</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="F276" t="s">
-        <v>1007</v>
+        <v>696</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G276" s="3" t="s">
-        <v>954</v>
+        <v>645</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>502</v>
+        <v>626</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>16</v>
+        <v>568</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F277" t="s">
-        <v>431</v>
+        <v>727</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G277" s="3" t="s">
-        <v>581</v>
+        <v>675</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>452</v>
+        <v>588</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>16</v>
+        <v>567</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="F278" t="s">
-        <v>431</v>
+        <v>689</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G278" s="3" t="s">
-        <v>532</v>
+        <v>639</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>888</v>
+        <v>596</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>564</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="F279" t="s">
-        <v>1007</v>
+        <v>697</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G279" s="3" t="s">
-        <v>953</v>
+        <v>646</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>669</v>
+        <v>623</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>644</v>
+        <v>564</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>770</v>
+        <v>724</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>597</v>
+        <v>551</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>816</v>
+        <v>736</v>
       </c>
       <c r="G280" s="3" t="s">
-        <v>720</v>
+        <v>673</v>
+      </c>
+      <c r="H280" t="s">
+        <v>995</v>
+      </c>
+      <c r="I280" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>680</v>
+        <v>616</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>644</v>
+        <v>577</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>781</v>
+        <v>717</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>608</v>
+        <v>544</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>816</v>
+        <v>736</v>
       </c>
       <c r="G281" s="3" t="s">
-        <v>730</v>
+        <v>666</v>
+      </c>
+      <c r="H281" t="s">
+        <v>990</v>
+      </c>
+      <c r="I281" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>252</v>
+        <v>592</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>2</v>
+        <v>564</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>254</v>
+        <v>693</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>255</v>
+        <v>520</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G282" s="3" t="s">
-        <v>253</v>
+        <v>643</v>
+      </c>
+      <c r="H282" t="s">
+        <v>983</v>
+      </c>
+      <c r="I282" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>256</v>
+        <v>601</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>2</v>
+        <v>570</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>258</v>
+        <v>702</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>259</v>
+        <v>529</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G283" s="3" t="s">
-        <v>257</v>
+        <v>651</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>435</v>
+        <v>607</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>16</v>
+        <v>568</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F284" t="s">
-        <v>431</v>
+        <v>708</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G284" s="3" t="s">
-        <v>515</v>
+        <v>657</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>673</v>
+        <v>604</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>648</v>
+        <v>572</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>774</v>
+        <v>705</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>601</v>
+        <v>532</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>816</v>
+        <v>736</v>
       </c>
       <c r="G285" s="3" t="s">
-        <v>724</v>
+        <v>654</v>
       </c>
       <c r="H285" t="s">
-        <v>1064</v>
+        <v>986</v>
       </c>
       <c r="I285" t="s">
-        <v>1110</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>887</v>
+        <v>629</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>581</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="F286" t="s">
-        <v>1007</v>
+        <v>730</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G286" s="3" t="s">
-        <v>952</v>
+        <v>678</v>
+      </c>
+      <c r="H286" t="s">
+        <v>997</v>
+      </c>
+      <c r="I286" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>448</v>
+        <v>609</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>16</v>
+        <v>574</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="F287" t="s">
-        <v>431</v>
+        <v>710</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G287" s="3" t="s">
-        <v>528</v>
+        <v>659</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>886</v>
+        <v>608</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>564</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="F288" t="s">
-        <v>1007</v>
+        <v>709</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G288" s="3" t="s">
-        <v>951</v>
-      </c>
-      <c r="H288" t="s">
-        <v>1079</v>
-      </c>
-      <c r="I288" t="s">
-        <v>1109</v>
+        <v>658</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>511</v>
+        <v>585</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>16</v>
+        <v>565</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="F289" t="s">
-        <v>431</v>
+        <v>686</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G289" s="3" t="s">
-        <v>590</v>
+        <v>636</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>260</v>
+        <v>618</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>262</v>
+        <v>564</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>263</v>
+        <v>719</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>264</v>
+        <v>546</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G290" s="3" t="s">
-        <v>261</v>
+        <v>668</v>
       </c>
       <c r="H290" t="s">
-        <v>1044</v>
+        <v>991</v>
       </c>
       <c r="I290" t="s">
-        <v>1109</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>885</v>
+        <v>587</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>566</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="F291" t="s">
-        <v>1007</v>
+        <v>688</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G291" s="3" t="s">
-        <v>261</v>
+        <v>638</v>
       </c>
       <c r="H291" t="s">
-        <v>1044</v>
+        <v>982</v>
       </c>
       <c r="I291" t="s">
-        <v>1109</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>697</v>
+        <v>619</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>648</v>
+        <v>564</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>798</v>
+        <v>720</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>625</v>
+        <v>547</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>816</v>
+        <v>736</v>
       </c>
       <c r="G292" s="3" t="s">
-        <v>747</v>
+        <v>669</v>
+      </c>
+      <c r="H292" t="s">
+        <v>992</v>
+      </c>
+      <c r="I292" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>884</v>
+        <v>589</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>564</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="F293" t="s">
-        <v>1007</v>
+        <v>690</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G293" s="3" t="s">
-        <v>747</v>
+        <v>640</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>265</v>
+        <v>600</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>2</v>
+        <v>564</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>267</v>
+        <v>701</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>268</v>
+        <v>528</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G294" s="3" t="s">
-        <v>266</v>
+        <v>650</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>510</v>
+        <v>593</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>16</v>
+        <v>568</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="F295" t="s">
-        <v>431</v>
+        <v>694</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G295" s="3" t="s">
-        <v>589</v>
+        <v>644</v>
+      </c>
+      <c r="H295" t="s">
+        <v>984</v>
+      </c>
+      <c r="I295" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>690</v>
+        <v>617</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>644</v>
+        <v>568</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>791</v>
+        <v>718</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>618</v>
+        <v>545</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>816</v>
+        <v>736</v>
       </c>
       <c r="G296" s="3" t="s">
-        <v>740</v>
+        <v>667</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A297" s="1" t="s">
+        <v>610</v>
+      </c>
       <c r="C297" s="1" t="s">
-        <v>16</v>
+        <v>564</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F297" t="s">
-        <v>325</v>
+        <v>711</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G297" s="3" t="s">
-        <v>324</v>
+        <v>660</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>712</v>
+        <v>632</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>648</v>
+        <v>568</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>813</v>
+        <v>733</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>640</v>
+        <v>560</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>816</v>
+        <v>736</v>
       </c>
       <c r="G298" s="3" t="s">
-        <v>761</v>
+        <v>681</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I298" xr:uid="{16920743-C846-2C4C-8CE8-91843824B7E7}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I298">
-      <sortCondition ref="G1:G298"/>
+      <sortCondition ref="F1:F298"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="H160" r:id="rId1" xr:uid="{7BD70E07-A0DE-8146-8985-ACA54A09AEC9}"/>
-    <hyperlink ref="H14" r:id="rId2" xr:uid="{3D357780-FB56-3348-8B17-B84AB23F7556}"/>
-    <hyperlink ref="H55" r:id="rId3" xr:uid="{A6470420-2901-ED4F-A0DF-D739B04CF64F}"/>
-    <hyperlink ref="H130" r:id="rId4" xr:uid="{DC52382E-52B1-9A46-9596-3B6B7342D24D}"/>
-    <hyperlink ref="H46" r:id="rId5" xr:uid="{524E41CC-2ADE-CF47-9876-67CEEEF076E2}"/>
-    <hyperlink ref="H40" r:id="rId6" xr:uid="{B9C72786-053C-D444-8595-2F9501A63B23}"/>
+    <hyperlink ref="H149" r:id="rId1" xr:uid="{7BD70E07-A0DE-8146-8985-ACA54A09AEC9}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{3D357780-FB56-3348-8B17-B84AB23F7556}"/>
+    <hyperlink ref="H195" r:id="rId3" xr:uid="{A6470420-2901-ED4F-A0DF-D739B04CF64F}"/>
+    <hyperlink ref="H210" r:id="rId4" xr:uid="{DC52382E-52B1-9A46-9596-3B6B7342D24D}"/>
+    <hyperlink ref="H256" r:id="rId5" xr:uid="{524E41CC-2ADE-CF47-9876-67CEEEF076E2}"/>
+    <hyperlink ref="H29" r:id="rId6" xr:uid="{B9C72786-053C-D444-8595-2F9501A63B23}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/python/startup_jobs.xlsx
+++ b/python/startup_jobs.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmolines/git/startupjobs/startup_jobs/python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1861DE8-CB17-9845-B7B5-5E4C74B0E0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FBAA19-5D77-E247-897E-FEA1288550F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{CBF2191E-5947-214E-ACFD-6A321E482C07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Alicerce" sheetId="2" r:id="rId2"/>
+    <sheet name="Domo" sheetId="3" r:id="rId2"/>
+    <sheet name="Alicerce" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$298</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$218</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -3385,7 +3386,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3414,6 +3415,26 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3436,7 +3457,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -3444,6 +3465,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3759,10 +3783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16920743-C846-2C4C-8CE8-91843824B7E7}">
-  <dimension ref="A1:I298"/>
+  <dimension ref="A1:I218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4411,1398 +4435,1467 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>16</v>
+      <c r="A36" s="1" t="s">
+        <v>870</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>391</v>
+        <v>803</v>
       </c>
       <c r="F36" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>471</v>
+        <v>348</v>
+      </c>
+      <c r="H36" t="s">
+        <v>976</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>16</v>
+      <c r="A37" s="1" t="s">
+        <v>869</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>418</v>
+        <v>802</v>
       </c>
       <c r="F37" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>498</v>
+        <v>926</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1026</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>16</v>
+      <c r="A38" s="1" t="s">
+        <v>868</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>381</v>
+        <v>801</v>
       </c>
       <c r="F38" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>461</v>
+        <v>637</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1025</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>16</v>
+      <c r="A39" s="1" t="s">
+        <v>867</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>366</v>
+        <v>800</v>
       </c>
       <c r="F39" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>446</v>
+        <v>925</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>16</v>
+      <c r="A40" s="1" t="s">
+        <v>866</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>400</v>
+        <v>799</v>
       </c>
       <c r="F40" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>480</v>
+        <v>924</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>16</v>
+      <c r="A41" s="1" t="s">
+        <v>865</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>393</v>
+        <v>798</v>
       </c>
       <c r="F41" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>473</v>
+        <v>349</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>16</v>
+      <c r="A42" s="1" t="s">
+        <v>864</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>378</v>
+        <v>797</v>
       </c>
       <c r="F42" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>458</v>
+        <v>922</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>16</v>
+      <c r="A43" s="1" t="s">
+        <v>863</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>427</v>
+        <v>796</v>
       </c>
       <c r="F43" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>507</v>
+        <v>923</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>16</v>
+      <c r="A44" s="1" t="s">
+        <v>862</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>358</v>
+        <v>795</v>
       </c>
       <c r="F44" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>438</v>
+        <v>921</v>
       </c>
       <c r="H44" t="s">
-        <v>980</v>
+        <v>1024</v>
       </c>
       <c r="I44" t="s">
         <v>1029</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>16</v>
+      <c r="A45" s="1" t="s">
+        <v>861</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>377</v>
+        <v>794</v>
       </c>
       <c r="F45" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>457</v>
+        <v>920</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1023</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>16</v>
+      <c r="A46" s="1" t="s">
+        <v>860</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>416</v>
+        <v>793</v>
       </c>
       <c r="F46" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>496</v>
+        <v>919</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>16</v>
+      <c r="A47" s="1" t="s">
+        <v>859</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>363</v>
+        <v>792</v>
       </c>
       <c r="F47" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>443</v>
+        <v>918</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>16</v>
+      <c r="A48" s="1" t="s">
+        <v>858</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>395</v>
+        <v>791</v>
       </c>
       <c r="F48" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>475</v>
+        <v>917</v>
+      </c>
+      <c r="H48" t="s">
+        <v>941</v>
+      </c>
+      <c r="I48" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>16</v>
+      <c r="A49" s="1" t="s">
+        <v>857</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>409</v>
+        <v>790</v>
       </c>
       <c r="F49" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>489</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>16</v>
+      <c r="A50" s="1" t="s">
+        <v>856</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>71</v>
+        <v>789</v>
       </c>
       <c r="F50" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>70</v>
+        <v>916</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>16</v>
+      <c r="A51" s="1" t="s">
+        <v>855</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>399</v>
+        <v>788</v>
       </c>
       <c r="F51" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>479</v>
+        <v>915</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>16</v>
+      <c r="A52" s="1" t="s">
+        <v>854</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>415</v>
+        <v>787</v>
       </c>
       <c r="F52" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>495</v>
+        <v>914</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>16</v>
+      <c r="A53" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>413</v>
+        <v>786</v>
       </c>
       <c r="F53" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>493</v>
+        <v>913</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>16</v>
+      <c r="A54" s="1" t="s">
+        <v>852</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>411</v>
+        <v>785</v>
       </c>
       <c r="F54" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>491</v>
+        <v>912</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I54" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>16</v>
+      <c r="A55" s="1" t="s">
+        <v>851</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>423</v>
+        <v>784</v>
       </c>
       <c r="F55" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>503</v>
+        <v>911</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>16</v>
+      <c r="A56" s="1" t="s">
+        <v>850</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>356</v>
+        <v>783</v>
       </c>
       <c r="F56" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="H56" t="s">
-        <v>979</v>
-      </c>
-      <c r="I56" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="F57" t="s">
+        <v>927</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="H57" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I57" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="F57" t="s">
-        <v>431</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>16</v>
+      <c r="A58" s="1" t="s">
+        <v>848</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>396</v>
+        <v>781</v>
       </c>
       <c r="F58" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>476</v>
+        <v>1016</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>16</v>
+      <c r="A59" s="1" t="s">
+        <v>847</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>402</v>
+        <v>780</v>
       </c>
       <c r="F59" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>482</v>
+        <v>908</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>16</v>
+      <c r="A60" s="1" t="s">
+        <v>846</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>354</v>
+        <v>779</v>
       </c>
       <c r="F60" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>434</v>
+        <v>907</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>16</v>
+      <c r="A61" s="1" t="s">
+        <v>845</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>417</v>
+        <v>778</v>
       </c>
       <c r="F61" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>497</v>
+        <v>113</v>
+      </c>
+      <c r="H61" t="s">
+        <v>949</v>
+      </c>
+      <c r="I61" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>16</v>
+      <c r="A62" s="1" t="s">
+        <v>844</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>403</v>
+        <v>777</v>
       </c>
       <c r="F62" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>483</v>
+        <v>906</v>
+      </c>
+      <c r="H62" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I62" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>16</v>
+      <c r="A63" s="1" t="s">
+        <v>843</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>389</v>
+        <v>776</v>
       </c>
       <c r="F63" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>469</v>
+        <v>672</v>
+      </c>
+      <c r="H63" t="s">
+        <v>994</v>
+      </c>
+      <c r="I63" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>16</v>
+      <c r="A64" s="1" t="s">
+        <v>842</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>422</v>
+        <v>775</v>
       </c>
       <c r="F64" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>16</v>
+        <v>905</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>841</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>359</v>
+        <v>774</v>
       </c>
       <c r="F65" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>16</v>
+        <v>904</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>840</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>379</v>
+        <v>773</v>
       </c>
       <c r="F66" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>16</v>
+        <v>903</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>839</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>401</v>
+        <v>772</v>
       </c>
       <c r="F67" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>16</v>
+        <v>902</v>
+      </c>
+      <c r="H67" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I67" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>838</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>385</v>
+        <v>771</v>
       </c>
       <c r="F68" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>16</v>
+        <v>901</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>837</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>376</v>
+        <v>770</v>
       </c>
       <c r="F69" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>16</v>
+        <v>900</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="I69" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>836</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>425</v>
+        <v>769</v>
       </c>
       <c r="F70" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>16</v>
+        <v>899</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>835</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>387</v>
+        <v>768</v>
       </c>
       <c r="F71" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>16</v>
+        <v>898</v>
+      </c>
+      <c r="H71" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I71" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>834</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>375</v>
+        <v>767</v>
       </c>
       <c r="F72" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>16</v>
+        <v>897</v>
+      </c>
+      <c r="H72" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I72" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>833</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>405</v>
+        <v>766</v>
       </c>
       <c r="F73" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>16</v>
+        <v>896</v>
+      </c>
+      <c r="H73" t="s">
+        <v>1011</v>
+      </c>
+      <c r="I73" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>832</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>352</v>
+        <v>765</v>
       </c>
       <c r="F74" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>16</v>
+        <v>895</v>
+      </c>
+      <c r="H74" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I74" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>831</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>364</v>
+        <v>764</v>
       </c>
       <c r="F75" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>16</v>
+        <v>894</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>830</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>407</v>
+        <v>763</v>
       </c>
       <c r="F76" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>16</v>
+        <v>893</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>829</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>373</v>
+        <v>762</v>
       </c>
       <c r="F77" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>16</v>
+        <v>892</v>
+      </c>
+      <c r="H77" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I77" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>828</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>419</v>
+        <v>761</v>
       </c>
       <c r="F78" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>16</v>
+        <v>891</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>827</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>384</v>
+        <v>760</v>
       </c>
       <c r="F79" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>16</v>
+        <v>890</v>
+      </c>
+      <c r="H79" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I79" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>826</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>408</v>
+        <v>759</v>
       </c>
       <c r="F80" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>488</v>
+        <v>889</v>
+      </c>
+      <c r="H80" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I80" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>16</v>
+      <c r="A81" s="1" t="s">
+        <v>825</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>428</v>
+        <v>758</v>
       </c>
       <c r="F81" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>508</v>
+        <v>888</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>16</v>
+      <c r="A82" s="1" t="s">
+        <v>824</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>386</v>
+        <v>757</v>
       </c>
       <c r="F82" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>466</v>
+        <v>887</v>
+      </c>
+      <c r="H82" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I82" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>16</v>
+      <c r="A83" s="1" t="s">
+        <v>823</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>353</v>
+        <v>756</v>
       </c>
       <c r="F83" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>433</v>
+        <v>886</v>
       </c>
       <c r="H83" t="s">
-        <v>978</v>
+        <v>1005</v>
       </c>
       <c r="I83" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="F84" t="s">
+        <v>927</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="F85" t="s">
+        <v>927</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="H85" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I85" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="F84" t="s">
-        <v>431</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="F85" t="s">
-        <v>431</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>16</v>
+      <c r="A86" s="1" t="s">
+        <v>820</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>360</v>
+        <v>753</v>
       </c>
       <c r="F86" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>440</v>
+        <v>883</v>
+      </c>
+      <c r="H86" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I86" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>16</v>
+      <c r="A87" s="1" t="s">
+        <v>819</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>392</v>
+        <v>752</v>
       </c>
       <c r="F87" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>472</v>
+        <v>882</v>
+      </c>
+      <c r="H87" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I87" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>16</v>
+      <c r="A88" s="1" t="s">
+        <v>818</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>371</v>
+        <v>751</v>
       </c>
       <c r="F88" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>451</v>
+        <v>881</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>16</v>
+      <c r="A89" s="1" t="s">
+        <v>817</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>398</v>
+        <v>750</v>
       </c>
       <c r="F89" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>478</v>
+        <v>880</v>
+      </c>
+      <c r="H89" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I89" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>16</v>
+      <c r="A90" s="1" t="s">
+        <v>816</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>406</v>
+        <v>749</v>
       </c>
       <c r="F90" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>486</v>
+        <v>317</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>16</v>
+      <c r="A91" s="1" t="s">
+        <v>815</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>414</v>
+        <v>748</v>
       </c>
       <c r="F91" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>494</v>
+        <v>879</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>16</v>
+      <c r="A92" s="1" t="s">
+        <v>814</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>388</v>
+        <v>747</v>
       </c>
       <c r="F92" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>468</v>
+        <v>878</v>
+      </c>
+      <c r="H92" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I92" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>16</v>
+      <c r="A93" s="1" t="s">
+        <v>813</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>370</v>
+        <v>746</v>
       </c>
       <c r="F93" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>450</v>
+        <v>877</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>16</v>
+      <c r="A94" s="1" t="s">
+        <v>812</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>390</v>
+        <v>745</v>
       </c>
       <c r="F94" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>470</v>
+        <v>876</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>16</v>
+      <c r="A95" s="1" t="s">
+        <v>811</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>374</v>
+        <v>744</v>
       </c>
       <c r="F95" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>454</v>
+        <v>875</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>16</v>
+      <c r="A96" s="1" t="s">
+        <v>810</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>412</v>
+        <v>743</v>
       </c>
       <c r="F96" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>16</v>
+        <v>669</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>809</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>369</v>
+        <v>742</v>
       </c>
       <c r="F97" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>16</v>
+        <v>874</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>808</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>394</v>
+        <v>741</v>
       </c>
       <c r="F98" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>16</v>
+        <v>873</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>807</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>383</v>
+        <v>740</v>
       </c>
       <c r="F99" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>16</v>
+        <v>872</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>806</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>424</v>
+        <v>739</v>
       </c>
       <c r="F100" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>16</v>
+        <v>871</v>
+      </c>
+      <c r="H100" t="s">
+        <v>999</v>
+      </c>
+      <c r="I100" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>805</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>410</v>
+        <v>738</v>
       </c>
       <c r="F101" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>16</v>
+        <v>261</v>
+      </c>
+      <c r="H101" t="s">
+        <v>964</v>
+      </c>
+      <c r="I101" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>804</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>420</v>
+        <v>737</v>
       </c>
       <c r="F102" t="s">
-        <v>431</v>
+        <v>927</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>1100</v>
+        <v>667</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="F103" t="s">
-        <v>431</v>
+        <v>3</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>1101</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="F104" t="s">
-        <v>431</v>
+        <v>7</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>1102</v>
+        <v>6</v>
+      </c>
+      <c r="H104" t="s">
+        <v>928</v>
+      </c>
+      <c r="I104" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F105" t="s">
-        <v>431</v>
+        <v>12</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>1103</v>
+        <v>10</v>
+      </c>
+      <c r="H105" t="s">
+        <v>929</v>
+      </c>
+      <c r="I105" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F106" t="s">
-        <v>431</v>
+        <v>17</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>1104</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="F107" t="s">
-        <v>431</v>
+        <v>22</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>1105</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="F108" t="s">
-        <v>431</v>
+        <v>27</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>1106</v>
+        <v>25</v>
+      </c>
+      <c r="H108" t="s">
+        <v>930</v>
+      </c>
+      <c r="I108" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F109" t="s">
-        <v>431</v>
+        <v>31</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>1107</v>
+        <v>30</v>
+      </c>
+      <c r="H109" t="s">
+        <v>931</v>
+      </c>
+      <c r="I109" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F110" t="s">
-        <v>431</v>
+        <v>35</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>1108</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="F111" t="s">
-        <v>431</v>
+        <v>39</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>1109</v>
+        <v>38</v>
+      </c>
+      <c r="H111" t="s">
+        <v>932</v>
+      </c>
+      <c r="I111" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F112" t="s">
-        <v>431</v>
+        <v>43</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>435</v>
+        <v>42</v>
+      </c>
+      <c r="H112" t="s">
+        <v>933</v>
+      </c>
+      <c r="I112" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>1110</v>
+      <c r="A113" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="F113" t="s">
-        <v>431</v>
+        <v>47</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>448</v>
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>1111</v>
+      <c r="A114" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="F114" t="s">
-        <v>431</v>
+        <v>51</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>510</v>
+        <v>50</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>1112</v>
+      <c r="A115" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="F115" t="s">
-        <v>431</v>
+        <v>55</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>509</v>
+        <v>54</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="I115" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>870</v>
+        <v>57</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="F116" t="s">
-        <v>927</v>
+        <v>59</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>348</v>
+        <v>58</v>
       </c>
       <c r="H116" t="s">
-        <v>976</v>
+        <v>936</v>
       </c>
       <c r="I116" t="s">
         <v>1030</v>
@@ -5810,19 +5903,25 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>869</v>
+        <v>61</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="F117" t="s">
-        <v>927</v>
+        <v>63</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>926</v>
+        <v>62</v>
       </c>
       <c r="H117" t="s">
-        <v>1026</v>
+        <v>937</v>
       </c>
       <c r="I117" t="s">
         <v>1029</v>
@@ -5830,109 +5929,175 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>868</v>
+        <v>65</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="F118" t="s">
-        <v>927</v>
+        <v>67</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>637</v>
+        <v>66</v>
       </c>
       <c r="H118" t="s">
-        <v>1025</v>
+        <v>938</v>
       </c>
       <c r="I118" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>867</v>
+        <v>69</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="F119" t="s">
-        <v>927</v>
+        <v>71</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>925</v>
+        <v>70</v>
+      </c>
+      <c r="H119" t="s">
+        <v>939</v>
+      </c>
+      <c r="I119" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>866</v>
+        <v>73</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="F120" t="s">
-        <v>927</v>
+        <v>75</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>924</v>
+        <v>74</v>
+      </c>
+      <c r="H120" t="s">
+        <v>940</v>
+      </c>
+      <c r="I120" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>865</v>
+        <v>77</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="F121" t="s">
-        <v>927</v>
+        <v>79</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>349</v>
+        <v>78</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>864</v>
+        <v>81</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="F122" t="s">
-        <v>927</v>
+        <v>83</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>922</v>
+        <v>82</v>
+      </c>
+      <c r="H122" t="s">
+        <v>941</v>
+      </c>
+      <c r="I122" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>863</v>
+        <v>85</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="F123" t="s">
-        <v>927</v>
+        <v>86</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>923</v>
+        <v>942</v>
+      </c>
+      <c r="H123" t="s">
+        <v>943</v>
+      </c>
+      <c r="I123" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>862</v>
+        <v>88</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="F124" t="s">
-        <v>927</v>
+        <v>90</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>921</v>
+        <v>89</v>
       </c>
       <c r="H124" t="s">
-        <v>1024</v>
+        <v>944</v>
       </c>
       <c r="I124" t="s">
         <v>1029</v>
@@ -5940,291 +6105,393 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>861</v>
+        <v>92</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="F125" t="s">
-        <v>927</v>
+        <v>95</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>920</v>
+        <v>93</v>
       </c>
       <c r="H125" t="s">
-        <v>1023</v>
+        <v>945</v>
       </c>
       <c r="I125" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>860</v>
+        <v>97</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="F126" t="s">
-        <v>927</v>
+        <v>99</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>919</v>
+        <v>98</v>
+      </c>
+      <c r="H126" t="s">
+        <v>946</v>
+      </c>
+      <c r="I126" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>859</v>
+        <v>101</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="F127" t="s">
-        <v>927</v>
+        <v>103</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>918</v>
+        <v>102</v>
       </c>
       <c r="H127" t="s">
-        <v>1022</v>
+        <v>947</v>
       </c>
       <c r="I127" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>858</v>
+        <v>105</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="F128" t="s">
-        <v>927</v>
+        <v>106</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>917</v>
-      </c>
-      <c r="H128" t="s">
-        <v>941</v>
-      </c>
-      <c r="I128" t="s">
-        <v>1029</v>
+        <v>908</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>857</v>
+        <v>108</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="F129" t="s">
-        <v>927</v>
+        <v>110</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>82</v>
+        <v>109</v>
+      </c>
+      <c r="H129" t="s">
+        <v>948</v>
+      </c>
+      <c r="I129" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>856</v>
+        <v>112</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="F130" t="s">
-        <v>927</v>
+        <v>114</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>916</v>
+        <v>113</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="I130" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>855</v>
+        <v>116</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="F131" t="s">
-        <v>927</v>
+        <v>119</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>915</v>
-      </c>
-      <c r="H131" t="s">
-        <v>1021</v>
-      </c>
-      <c r="I131" t="s">
-        <v>1029</v>
+        <v>117</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>854</v>
+        <v>121</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="F132" t="s">
-        <v>927</v>
+        <v>124</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>914</v>
+        <v>122</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>853</v>
+        <v>126</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="F133" t="s">
-        <v>927</v>
+        <v>128</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>913</v>
-      </c>
-      <c r="H133" t="s">
-        <v>1020</v>
-      </c>
-      <c r="I133" t="s">
-        <v>1029</v>
+        <v>127</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>852</v>
+        <v>130</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="F134" t="s">
-        <v>927</v>
+        <v>133</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>912</v>
+        <v>131</v>
       </c>
       <c r="H134" t="s">
-        <v>1019</v>
+        <v>950</v>
       </c>
       <c r="I134" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>851</v>
+        <v>135</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="F135" t="s">
-        <v>927</v>
+        <v>137</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>911</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>850</v>
+        <v>139</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="F136" t="s">
-        <v>927</v>
+        <v>141</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>910</v>
+        <v>140</v>
+      </c>
+      <c r="H136" t="s">
+        <v>951</v>
+      </c>
+      <c r="I136" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>849</v>
+        <v>143</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="F137" t="s">
-        <v>927</v>
+        <v>145</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>909</v>
+        <v>144</v>
       </c>
       <c r="H137" t="s">
-        <v>1018</v>
+        <v>952</v>
       </c>
       <c r="I137" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>848</v>
+        <v>147</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="F138" t="s">
-        <v>927</v>
+        <v>149</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>1016</v>
-      </c>
-      <c r="H138" t="s">
-        <v>1017</v>
-      </c>
-      <c r="I138" t="s">
-        <v>1029</v>
+        <v>148</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>847</v>
+        <v>151</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="F139" t="s">
-        <v>927</v>
+        <v>153</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>908</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>846</v>
+        <v>155</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="F140" t="s">
-        <v>927</v>
+        <v>157</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>907</v>
+        <v>156</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>845</v>
+        <v>159</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="F141" t="s">
-        <v>927</v>
+        <v>162</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="H141" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="I141" t="s">
         <v>1031</v>
@@ -6232,39 +6499,45 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>844</v>
+        <v>164</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="F142" t="s">
-        <v>927</v>
+        <v>166</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>906</v>
-      </c>
-      <c r="H142" t="s">
-        <v>1015</v>
-      </c>
-      <c r="I142" t="s">
-        <v>1031</v>
+        <v>165</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>843</v>
+        <v>168</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="F143" t="s">
-        <v>927</v>
+        <v>170</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>672</v>
+        <v>169</v>
       </c>
       <c r="H143" t="s">
-        <v>994</v>
+        <v>954</v>
       </c>
       <c r="I143" t="s">
         <v>1030</v>
@@ -6272,699 +6545,922 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>842</v>
+        <v>172</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="F144" t="s">
-        <v>927</v>
+        <v>174</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>905</v>
+        <v>173</v>
+      </c>
+      <c r="H144" t="s">
+        <v>955</v>
+      </c>
+      <c r="I144" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>841</v>
+        <v>176</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="F145" t="s">
-        <v>927</v>
+        <v>178</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>904</v>
+        <v>177</v>
+      </c>
+      <c r="H145" t="s">
+        <v>956</v>
+      </c>
+      <c r="I145" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>840</v>
+        <v>180</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="F146" t="s">
-        <v>927</v>
+        <v>183</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>903</v>
+        <v>181</v>
+      </c>
+      <c r="H146" t="s">
+        <v>957</v>
+      </c>
+      <c r="I146" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>839</v>
+        <v>185</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="F147" t="s">
-        <v>927</v>
+        <v>187</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>902</v>
-      </c>
-      <c r="H147" t="s">
-        <v>1014</v>
-      </c>
-      <c r="I147" t="s">
-        <v>1031</v>
+        <v>186</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>838</v>
+        <v>189</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="F148" t="s">
-        <v>927</v>
+        <v>191</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>901</v>
+        <v>190</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>837</v>
+        <v>193</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="F149" t="s">
-        <v>927</v>
+        <v>195</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>900</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="I149" t="s">
-        <v>1029</v>
+        <v>194</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>836</v>
+        <v>197</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="F150" t="s">
-        <v>927</v>
+        <v>200</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>899</v>
+        <v>198</v>
+      </c>
+      <c r="H150" t="s">
+        <v>958</v>
+      </c>
+      <c r="I150" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>835</v>
+        <v>202</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="F151" t="s">
-        <v>927</v>
+        <v>204</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>898</v>
+        <v>203</v>
       </c>
       <c r="H151" t="s">
-        <v>1013</v>
+        <v>959</v>
       </c>
       <c r="I151" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>834</v>
+        <v>206</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="F152" t="s">
-        <v>927</v>
+        <v>209</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>897</v>
+        <v>207</v>
       </c>
       <c r="H152" t="s">
-        <v>1012</v>
+        <v>960</v>
       </c>
       <c r="I152" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>833</v>
+        <v>211</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="F153" t="s">
-        <v>927</v>
+        <v>213</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>896</v>
-      </c>
-      <c r="H153" t="s">
-        <v>1011</v>
-      </c>
-      <c r="I153" t="s">
-        <v>1029</v>
+        <v>212</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>832</v>
+        <v>215</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="F154" t="s">
-        <v>927</v>
+        <v>217</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>895</v>
+        <v>216</v>
       </c>
       <c r="H154" t="s">
-        <v>1010</v>
+        <v>961</v>
       </c>
       <c r="I154" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>831</v>
+        <v>219</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="F155" t="s">
-        <v>927</v>
+        <v>222</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>894</v>
+        <v>220</v>
+      </c>
+      <c r="H155" t="s">
+        <v>962</v>
+      </c>
+      <c r="I155" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>830</v>
+        <v>224</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="F156" t="s">
-        <v>927</v>
+        <v>226</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>893</v>
+        <v>225</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>829</v>
+        <v>228</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="F157" t="s">
-        <v>927</v>
+        <v>230</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>892</v>
-      </c>
-      <c r="H157" t="s">
-        <v>1009</v>
-      </c>
-      <c r="I157" t="s">
-        <v>1029</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="H157" s="4"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>828</v>
+        <v>232</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="F158" t="s">
-        <v>927</v>
+        <v>234</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>891</v>
+        <v>233</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>827</v>
+        <v>236</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="F159" t="s">
-        <v>927</v>
+        <v>238</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>890</v>
-      </c>
-      <c r="H159" t="s">
-        <v>1008</v>
-      </c>
-      <c r="I159" t="s">
-        <v>1031</v>
+        <v>237</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>826</v>
+        <v>240</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="F160" t="s">
-        <v>927</v>
+        <v>242</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>889</v>
-      </c>
-      <c r="H160" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I160" t="s">
-        <v>1030</v>
+        <v>241</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>825</v>
+        <v>244</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="F161" t="s">
-        <v>927</v>
+        <v>246</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>888</v>
+        <v>245</v>
+      </c>
+      <c r="H161" t="s">
+        <v>963</v>
+      </c>
+      <c r="I161" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>824</v>
+        <v>248</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="F162" t="s">
-        <v>927</v>
+        <v>250</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>887</v>
-      </c>
-      <c r="H162" t="s">
-        <v>1006</v>
-      </c>
-      <c r="I162" t="s">
-        <v>1029</v>
+        <v>249</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>823</v>
+        <v>252</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="F163" t="s">
-        <v>927</v>
+        <v>254</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>886</v>
-      </c>
-      <c r="H163" t="s">
-        <v>1005</v>
-      </c>
-      <c r="I163" t="s">
-        <v>1029</v>
+        <v>253</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>822</v>
+        <v>256</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="F164" t="s">
-        <v>927</v>
+        <v>258</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>885</v>
+        <v>257</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>821</v>
+        <v>260</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>262</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="F165" t="s">
-        <v>927</v>
+        <v>263</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>884</v>
+        <v>261</v>
       </c>
       <c r="H165" t="s">
-        <v>1004</v>
+        <v>964</v>
       </c>
       <c r="I165" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>820</v>
+        <v>265</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="F166" t="s">
-        <v>927</v>
+        <v>267</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="H166" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I166" t="s">
-        <v>1029</v>
+        <v>266</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>819</v>
+        <v>611</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>575</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="F167" t="s">
-        <v>927</v>
+        <v>712</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="H167" t="s">
-        <v>1002</v>
-      </c>
-      <c r="I167" t="s">
-        <v>1030</v>
+        <v>661</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>818</v>
+        <v>598</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>568</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="F168" t="s">
-        <v>927</v>
+        <v>699</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>881</v>
+        <v>648</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>817</v>
+        <v>630</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>565</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="F169" t="s">
-        <v>927</v>
+        <v>731</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>880</v>
-      </c>
-      <c r="H169" t="s">
-        <v>1001</v>
-      </c>
-      <c r="I169" t="s">
-        <v>1031</v>
+        <v>679</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>816</v>
+        <v>627</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>564</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="F170" t="s">
-        <v>927</v>
+        <v>728</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>317</v>
+        <v>676</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>815</v>
+        <v>615</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>568</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="F171" t="s">
-        <v>927</v>
+        <v>716</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>879</v>
+        <v>665</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>814</v>
+        <v>586</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>564</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="F172" t="s">
-        <v>927</v>
+        <v>687</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>878</v>
-      </c>
-      <c r="H172" t="s">
-        <v>1000</v>
-      </c>
-      <c r="I172" t="s">
-        <v>1029</v>
+        <v>637</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>813</v>
+        <v>594</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>568</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="F173" t="s">
-        <v>927</v>
+        <v>695</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>877</v>
+        <v>289</v>
+      </c>
+      <c r="H173" t="s">
+        <v>985</v>
+      </c>
+      <c r="I173" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>812</v>
+        <v>625</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>579</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="F174" t="s">
-        <v>927</v>
+        <v>726</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>876</v>
+        <v>674</v>
+      </c>
+      <c r="H174" t="s">
+        <v>996</v>
+      </c>
+      <c r="I174" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>811</v>
+        <v>605</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>568</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="F175" t="s">
-        <v>927</v>
+        <v>706</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>875</v>
+        <v>655</v>
+      </c>
+      <c r="H175" t="s">
+        <v>987</v>
+      </c>
+      <c r="I175" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>810</v>
+        <v>634</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>568</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="F176" t="s">
-        <v>927</v>
+        <v>735</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>669</v>
+        <v>683</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="I176" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>809</v>
+        <v>620</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>564</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="F177" t="s">
-        <v>927</v>
+        <v>721</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>874</v>
+        <v>670</v>
+      </c>
+      <c r="H177" t="s">
+        <v>993</v>
+      </c>
+      <c r="I177" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>808</v>
+        <v>597</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>568</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="F178" t="s">
-        <v>927</v>
+        <v>698</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>873</v>
+        <v>647</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>807</v>
+        <v>624</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>565</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="F179" t="s">
-        <v>927</v>
+        <v>725</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>872</v>
+        <v>70</v>
+      </c>
+      <c r="H179" t="s">
+        <v>939</v>
+      </c>
+      <c r="I179" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>806</v>
+        <v>603</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>564</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="F180" t="s">
-        <v>927</v>
+        <v>704</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>871</v>
-      </c>
-      <c r="H180" t="s">
-        <v>999</v>
-      </c>
-      <c r="I180" t="s">
-        <v>1029</v>
+        <v>653</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>805</v>
+        <v>599</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>569</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="F181" t="s">
-        <v>927</v>
+        <v>700</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="H181" t="s">
-        <v>964</v>
-      </c>
-      <c r="I181" t="s">
-        <v>1029</v>
+        <v>649</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>804</v>
+        <v>590</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>568</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="F182" t="s">
-        <v>927</v>
+        <v>691</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>667</v>
+        <v>641</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>2</v>
+        <v>564</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>3</v>
+        <v>692</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>4</v>
+        <v>519</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>1</v>
+        <v>642</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>5</v>
+        <v>614</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>2</v>
+        <v>564</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>7</v>
+        <v>715</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>8</v>
+        <v>542</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>6</v>
+        <v>664</v>
       </c>
       <c r="H184" t="s">
-        <v>928</v>
+        <v>989</v>
       </c>
       <c r="I184" t="s">
         <v>1030</v>
@@ -6972,538 +7468,493 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>9</v>
+        <v>631</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>11</v>
+        <v>568</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>12</v>
+        <v>732</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>13</v>
+        <v>559</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H185" t="s">
-        <v>929</v>
-      </c>
-      <c r="I185" t="s">
-        <v>1030</v>
+        <v>680</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>14</v>
+        <v>602</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>16</v>
+        <v>571</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>17</v>
+        <v>703</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>18</v>
+        <v>530</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>15</v>
+        <v>652</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>19</v>
+        <v>606</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>21</v>
+        <v>573</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>22</v>
+        <v>707</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>23</v>
+        <v>534</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>20</v>
+        <v>656</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>24</v>
+        <v>583</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>26</v>
+        <v>563</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>27</v>
+        <v>684</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>28</v>
+        <v>511</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H188" t="s">
-        <v>930</v>
+        <v>635</v>
+      </c>
+      <c r="H188" s="4" t="s">
+        <v>981</v>
       </c>
       <c r="I188" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>29</v>
+        <v>633</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>2</v>
+        <v>582</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>31</v>
+        <v>734</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>32</v>
+        <v>561</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H189" t="s">
-        <v>931</v>
-      </c>
-      <c r="I189" t="s">
-        <v>1030</v>
+        <v>682</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>33</v>
+        <v>621</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>2</v>
+        <v>564</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>35</v>
+        <v>722</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>36</v>
+        <v>549</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>34</v>
+        <v>671</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>37</v>
+        <v>628</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>2</v>
+        <v>580</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>39</v>
+        <v>729</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>40</v>
+        <v>556</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H191" t="s">
-        <v>932</v>
-      </c>
-      <c r="I191" t="s">
-        <v>1029</v>
+        <v>677</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>41</v>
+        <v>613</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>2</v>
+        <v>568</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>43</v>
+        <v>714</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>44</v>
+        <v>541</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H192" t="s">
-        <v>933</v>
-      </c>
-      <c r="I192" t="s">
-        <v>1029</v>
+        <v>663</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>45</v>
+        <v>622</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>2</v>
+        <v>578</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>47</v>
+        <v>723</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>48</v>
+        <v>550</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>46</v>
+        <v>672</v>
       </c>
       <c r="H193" t="s">
-        <v>934</v>
+        <v>994</v>
+      </c>
+      <c r="I193" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>49</v>
+        <v>612</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>2</v>
+        <v>576</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>51</v>
+        <v>713</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>52</v>
+        <v>540</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>50</v>
+        <v>662</v>
+      </c>
+      <c r="H194" t="s">
+        <v>988</v>
+      </c>
+      <c r="I194" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>53</v>
+        <v>584</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>2</v>
+        <v>564</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>55</v>
+        <v>685</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>56</v>
+        <v>512</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H195" s="2" t="s">
-        <v>935</v>
+        <v>140</v>
+      </c>
+      <c r="H195" t="s">
+        <v>951</v>
       </c>
       <c r="I195" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>57</v>
+        <v>595</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>26</v>
+        <v>568</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>59</v>
+        <v>696</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>60</v>
+        <v>523</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H196" t="s">
-        <v>936</v>
-      </c>
-      <c r="I196" t="s">
-        <v>1030</v>
+        <v>645</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>61</v>
+        <v>626</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>2</v>
+        <v>568</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>63</v>
+        <v>727</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>64</v>
+        <v>554</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H197" t="s">
-        <v>937</v>
-      </c>
-      <c r="I197" t="s">
-        <v>1029</v>
+        <v>675</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>65</v>
+        <v>588</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>21</v>
+        <v>567</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>67</v>
+        <v>689</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>68</v>
+        <v>516</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H198" t="s">
-        <v>938</v>
-      </c>
-      <c r="I198" t="s">
-        <v>1029</v>
+        <v>639</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>69</v>
+        <v>596</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>2</v>
+        <v>564</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>71</v>
+        <v>697</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>72</v>
+        <v>524</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H199" t="s">
-        <v>939</v>
-      </c>
-      <c r="I199" t="s">
-        <v>1029</v>
+        <v>646</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>73</v>
+        <v>623</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>2</v>
+        <v>564</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>75</v>
+        <v>724</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>76</v>
+        <v>551</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>74</v>
+        <v>673</v>
       </c>
       <c r="H200" t="s">
-        <v>940</v>
+        <v>995</v>
       </c>
       <c r="I200" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>77</v>
+        <v>616</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>26</v>
+        <v>577</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>79</v>
+        <v>717</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>80</v>
+        <v>544</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>78</v>
+        <v>666</v>
+      </c>
+      <c r="H201" t="s">
+        <v>990</v>
+      </c>
+      <c r="I201" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>81</v>
+        <v>592</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>2</v>
+        <v>564</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>83</v>
+        <v>693</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>84</v>
+        <v>520</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>82</v>
+        <v>643</v>
       </c>
       <c r="H202" t="s">
-        <v>941</v>
+        <v>983</v>
       </c>
       <c r="I202" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>85</v>
+        <v>601</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>2</v>
+        <v>570</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>86</v>
+        <v>702</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>87</v>
+        <v>529</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="H203" t="s">
-        <v>943</v>
-      </c>
-      <c r="I203" t="s">
-        <v>1029</v>
+        <v>651</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>88</v>
+        <v>607</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>2</v>
+        <v>568</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>90</v>
+        <v>708</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>91</v>
+        <v>535</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H204" t="s">
-        <v>944</v>
-      </c>
-      <c r="I204" t="s">
-        <v>1029</v>
+        <v>657</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>92</v>
+        <v>604</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>94</v>
+        <v>572</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>95</v>
+        <v>705</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>96</v>
+        <v>532</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>93</v>
+        <v>654</v>
       </c>
       <c r="H205" t="s">
-        <v>945</v>
+        <v>986</v>
       </c>
       <c r="I205" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>97</v>
+        <v>629</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>2</v>
+        <v>581</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>99</v>
+        <v>730</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>100</v>
+        <v>557</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>98</v>
+        <v>678</v>
       </c>
       <c r="H206" t="s">
-        <v>946</v>
+        <v>997</v>
       </c>
       <c r="I206" t="s">
         <v>1029</v>
@@ -7511,97 +7962,85 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>101</v>
+        <v>609</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>2</v>
+        <v>574</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>103</v>
+        <v>710</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>104</v>
+        <v>537</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H207" t="s">
-        <v>947</v>
-      </c>
-      <c r="I207" t="s">
-        <v>1029</v>
+        <v>659</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>105</v>
+        <v>608</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>2</v>
+        <v>564</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>106</v>
+        <v>709</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>107</v>
+        <v>536</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>908</v>
+        <v>658</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>108</v>
+        <v>585</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>2</v>
+        <v>565</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>110</v>
+        <v>686</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>111</v>
+        <v>513</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H209" t="s">
-        <v>948</v>
-      </c>
-      <c r="I209" t="s">
-        <v>1029</v>
+        <v>636</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>112</v>
+        <v>618</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>2</v>
+        <v>564</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>114</v>
+        <v>719</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>115</v>
+        <v>546</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H210" s="2" t="s">
-        <v>949</v>
+        <v>668</v>
+      </c>
+      <c r="H210" t="s">
+        <v>991</v>
       </c>
       <c r="I210" t="s">
         <v>1031</v>
@@ -7609,1987 +8048,194 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>116</v>
+        <v>587</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>2</v>
+        <v>566</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>119</v>
+        <v>688</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>120</v>
+        <v>515</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>117</v>
+        <v>638</v>
+      </c>
+      <c r="H211" t="s">
+        <v>982</v>
+      </c>
+      <c r="I211" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>121</v>
+        <v>619</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>123</v>
+        <v>564</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>124</v>
+        <v>720</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>125</v>
+        <v>547</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>122</v>
+        <v>669</v>
+      </c>
+      <c r="H212" t="s">
+        <v>992</v>
+      </c>
+      <c r="I212" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>126</v>
+        <v>589</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>26</v>
+        <v>564</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>128</v>
+        <v>690</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>129</v>
+        <v>517</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>127</v>
+        <v>640</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>130</v>
+        <v>600</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>132</v>
+        <v>564</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>133</v>
+        <v>701</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>134</v>
+        <v>528</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H214" t="s">
-        <v>950</v>
-      </c>
-      <c r="I214" t="s">
-        <v>1030</v>
+        <v>650</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>135</v>
+        <v>593</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>2</v>
+        <v>568</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>137</v>
+        <v>694</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>138</v>
+        <v>521</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>136</v>
+        <v>644</v>
+      </c>
+      <c r="H215" t="s">
+        <v>984</v>
+      </c>
+      <c r="I215" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>139</v>
+        <v>617</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>2</v>
+        <v>568</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>141</v>
+        <v>718</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>142</v>
+        <v>545</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H216" t="s">
-        <v>951</v>
-      </c>
-      <c r="I216" t="s">
-        <v>1029</v>
+        <v>667</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>143</v>
+        <v>610</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>2</v>
+        <v>564</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>145</v>
+        <v>711</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>146</v>
+        <v>538</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H217" t="s">
-        <v>952</v>
-      </c>
-      <c r="I217" t="s">
-        <v>1029</v>
+        <v>660</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>147</v>
+        <v>632</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>2</v>
+        <v>568</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>149</v>
+        <v>733</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>150</v>
+        <v>560</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A219" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F219" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G219" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A220" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F220" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G220" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A221" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E221" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F221" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G221" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H221" t="s">
-        <v>953</v>
-      </c>
-      <c r="I221" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A222" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E222" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F222" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G222" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A223" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F223" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G223" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="H223" t="s">
-        <v>954</v>
-      </c>
-      <c r="I223" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A224" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F224" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G224" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H224" t="s">
-        <v>955</v>
-      </c>
-      <c r="I224" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A225" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F225" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G225" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="H225" t="s">
-        <v>956</v>
-      </c>
-      <c r="I225" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A226" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F226" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G226" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="H226" t="s">
-        <v>957</v>
-      </c>
-      <c r="I226" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A227" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F227" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G227" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A228" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F228" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G228" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A229" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F229" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G229" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A230" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F230" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G230" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="H230" t="s">
-        <v>958</v>
-      </c>
-      <c r="I230" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A231" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F231" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G231" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="H231" t="s">
-        <v>959</v>
-      </c>
-      <c r="I231" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A232" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D232" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F232" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G232" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="H232" t="s">
-        <v>960</v>
-      </c>
-      <c r="I232" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A233" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F233" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G233" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A234" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F234" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G234" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="H234" t="s">
-        <v>961</v>
-      </c>
-      <c r="I234" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A235" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F235" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G235" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="H235" t="s">
-        <v>962</v>
-      </c>
-      <c r="I235" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A236" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F236" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G236" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A237" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F237" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G237" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="H237" s="4"/>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A238" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F238" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G238" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A239" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F239" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G239" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A240" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F240" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G240" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A241" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F241" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G241" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="H241" t="s">
-        <v>963</v>
-      </c>
-      <c r="I241" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A242" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F242" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G242" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A243" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E243" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F243" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G243" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A244" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F244" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G244" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A245" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F245" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G245" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="H245" t="s">
-        <v>964</v>
-      </c>
-      <c r="I245" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A246" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F246" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G246" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A247" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="F247" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G247" s="3" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A248" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="F248" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G248" s="3" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A249" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="F249" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G249" s="3" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A250" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="F250" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G250" s="3" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A251" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="F251" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G251" s="3" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A252" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="F252" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G252" s="3" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A253" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="F253" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G253" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="H253" t="s">
-        <v>985</v>
-      </c>
-      <c r="I253" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A254" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="F254" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G254" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="H254" t="s">
-        <v>996</v>
-      </c>
-      <c r="I254" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A255" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="E255" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="F255" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G255" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="H255" t="s">
-        <v>987</v>
-      </c>
-      <c r="I255" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A256" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="F256" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G256" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="H256" s="2" t="s">
-        <v>998</v>
-      </c>
-      <c r="I256" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A257" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="F257" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G257" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="H257" t="s">
-        <v>993</v>
-      </c>
-      <c r="I257" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A258" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="F258" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G258" s="3" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A259" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="F259" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G259" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H259" t="s">
-        <v>939</v>
-      </c>
-      <c r="I259" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A260" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="F260" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G260" s="3" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A261" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="E261" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="F261" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G261" s="3" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A262" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="E262" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="F262" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G262" s="3" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A263" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="F263" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G263" s="3" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A264" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D264" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="F264" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G264" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="H264" t="s">
-        <v>989</v>
-      </c>
-      <c r="I264" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A265" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="D265" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="F265" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G265" s="3" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A266" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D266" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="F266" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G266" s="3" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A267" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="E267" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="F267" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G267" s="3" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A268" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="D268" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="F268" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G268" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="H268" s="4" t="s">
-        <v>981</v>
-      </c>
-      <c r="I268" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A269" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="D269" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="E269" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="F269" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G269" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A270" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D270" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="E270" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="F270" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G270" s="3" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A271" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="F271" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G271" s="3" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A272" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="F272" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G272" s="3" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A273" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="F273" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G273" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="H273" t="s">
-        <v>994</v>
-      </c>
-      <c r="I273" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A274" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="E274" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="F274" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G274" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="H274" t="s">
-        <v>988</v>
-      </c>
-      <c r="I274" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A275" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D275" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="E275" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="F275" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G275" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H275" t="s">
-        <v>951</v>
-      </c>
-      <c r="I275" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A276" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="D276" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="E276" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="F276" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G276" s="3" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A277" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="D277" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="E277" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="F277" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G277" s="3" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A278" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="D278" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="E278" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="F278" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G278" s="3" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A279" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D279" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="E279" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="F279" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G279" s="3" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A280" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D280" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="E280" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="F280" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G280" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="H280" t="s">
-        <v>995</v>
-      </c>
-      <c r="I280" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A281" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="D281" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="E281" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="F281" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G281" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="H281" t="s">
-        <v>990</v>
-      </c>
-      <c r="I281" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A282" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D282" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="E282" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="F282" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G282" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="H282" t="s">
-        <v>983</v>
-      </c>
-      <c r="I282" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A283" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D283" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="E283" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="F283" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G283" s="3" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A284" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="D284" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="F284" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G284" s="3" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A285" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="D285" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="F285" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G285" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="H285" t="s">
-        <v>986</v>
-      </c>
-      <c r="I285" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A286" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="D286" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="E286" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="F286" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G286" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="H286" t="s">
-        <v>997</v>
-      </c>
-      <c r="I286" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A287" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="D287" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="F287" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G287" s="3" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A288" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D288" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="F288" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G288" s="3" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A289" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="D289" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="E289" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="F289" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G289" s="3" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A290" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D290" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="E290" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="F290" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G290" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="H290" t="s">
-        <v>991</v>
-      </c>
-      <c r="I290" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A291" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="D291" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="E291" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="F291" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G291" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="H291" t="s">
-        <v>982</v>
-      </c>
-      <c r="I291" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A292" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D292" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="E292" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="F292" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G292" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="H292" t="s">
-        <v>992</v>
-      </c>
-      <c r="I292" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A293" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D293" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="E293" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="F293" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G293" s="3" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A294" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D294" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="E294" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="F294" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G294" s="3" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A295" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="D295" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="E295" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="F295" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G295" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="H295" t="s">
-        <v>984</v>
-      </c>
-      <c r="I295" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A296" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="D296" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="E296" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="F296" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G296" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A297" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D297" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="E297" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="F297" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G297" s="3" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A298" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="D298" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="E298" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="F298" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G298" s="3" t="s">
         <v>681</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I298" xr:uid="{16920743-C846-2C4C-8CE8-91843824B7E7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I298">
-      <sortCondition ref="F1:F298"/>
+  <autoFilter ref="A1:I218" xr:uid="{16920743-C846-2C4C-8CE8-91843824B7E7}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I218">
+      <sortCondition ref="F1:F218"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="H149" r:id="rId1" xr:uid="{7BD70E07-A0DE-8146-8985-ACA54A09AEC9}"/>
+    <hyperlink ref="H69" r:id="rId1" xr:uid="{7BD70E07-A0DE-8146-8985-ACA54A09AEC9}"/>
     <hyperlink ref="H2" r:id="rId2" xr:uid="{3D357780-FB56-3348-8B17-B84AB23F7556}"/>
-    <hyperlink ref="H195" r:id="rId3" xr:uid="{A6470420-2901-ED4F-A0DF-D739B04CF64F}"/>
-    <hyperlink ref="H210" r:id="rId4" xr:uid="{DC52382E-52B1-9A46-9596-3B6B7342D24D}"/>
-    <hyperlink ref="H256" r:id="rId5" xr:uid="{524E41CC-2ADE-CF47-9876-67CEEEF076E2}"/>
+    <hyperlink ref="H115" r:id="rId3" xr:uid="{A6470420-2901-ED4F-A0DF-D739B04CF64F}"/>
+    <hyperlink ref="H130" r:id="rId4" xr:uid="{DC52382E-52B1-9A46-9596-3B6B7342D24D}"/>
+    <hyperlink ref="H176" r:id="rId5" xr:uid="{524E41CC-2ADE-CF47-9876-67CEEEF076E2}"/>
     <hyperlink ref="H29" r:id="rId6" xr:uid="{B9C72786-053C-D444-8595-2F9501A63B23}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9597,6 +8243,1793 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA542A3-6624-934C-9DCC-347758BBBA4A}">
+  <dimension ref="A1:J80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E64" s="6"/>
+      <c r="F64" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="E65" s="6"/>
+      <c r="F65" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="E67" s="6"/>
+      <c r="F67" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="E72" s="6"/>
+      <c r="F72" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="E73" s="6"/>
+      <c r="F73" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B75" s="5"/>
+      <c r="C75" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="F75" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="E76" s="6"/>
+      <c r="F76" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B77" s="5"/>
+      <c r="C77" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="E77" s="6"/>
+      <c r="F77" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B78" s="5"/>
+      <c r="C78" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="E78" s="6"/>
+      <c r="F78" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B79" s="5"/>
+      <c r="C79" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B80" s="5"/>
+      <c r="C80" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="E80" s="6"/>
+      <c r="F80" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F4E809-1A9A-BE40-AF16-52B610AAD8E9}">
   <dimension ref="A1"/>
   <sheetViews>
